--- a/04_data/csv/another_eden_characters_detailed.xlsx
+++ b/04_data/csv/another_eden_characters_detailed.xlsx
@@ -423,9 +423,9 @@
   <cols>
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="50" customWidth="1" min="7" max="7"/>
   </cols>
@@ -480,7 +480,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -554,7 +554,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -591,12 +591,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Isuka ES(4)Claude ES(2)Moonlight Flower(2)Ruina(2)Isuka(2)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -665,12 +665,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fire, Crystal</t>
+          <t>Fire,Crystal</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Edax Unigan(2x25%)Miglance Castle(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -865,7 +865,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -913,17 +913,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Shade, Fire</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1263,13 +1263,13 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1354,17 +1354,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Edge of Contradiction(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1391,17 +1391,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Edge of Contradiction(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1576,17 +1576,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Shade, Fire</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1687,12 +1687,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Evil's Nest Arena(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1724,12 +1724,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Evil's Nest Arena(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Evil's Nest Arena(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Wind, Shade</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1835,12 +1835,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Evil's Nest Arena(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>None, Earth</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -2244,12 +2244,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>Earth,Thunder</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2731,12 +2731,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Water, Shade</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2768,17 +2768,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Fire, Water</t>
+          <t>Fire, Water, Thunder</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2842,17 +2842,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Path of Avarice(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2879,17 +2879,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Path of Avarice(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2953,12 +2953,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Light, Dark</t>
+          <t>Light- farmable ▽(expand)▽Darkrealm - Wyrmking's Domain(10%20%)Wyrmrest Isle - Dragon's Depths(10%20%)Wyrmrest Isle - Quadra Wastes(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Water,Shade</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3667,7 +3667,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Water, Shade</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Future Garulea Continent(2x25%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Omegapolis(2x25%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4265,12 +4265,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>505★</t>
+          <t>5★</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Fire, Shade</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4418,12 +4418,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Dream Flower(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4492,12 +4492,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Dream Flower(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4534,7 +4534,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Cynthia(3)Isuka ES(3)Forlorn Thespian(3)Ruina(3)Aldo(2)Elseal(2)Guildna(2)Moonlight Flower(2)Linaria(2)Miyu(2)Curio(2)Isuka(2)Noble Blossom(2)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4936,12 +4936,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Present Garulea Continent(2x25%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Water,Shade</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>Earth,Shade</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Iscariot(20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Water,Thunder</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Dreamslip Tower of Time(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Wind, Crystal</t>
+          <t>Wind,Crystal</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Fire, Crystal</t>
+          <t>Fire,Crystal</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5676,12 +5676,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>Earth,Shade</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5750,12 +5750,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Iscariot(20%)Sapient Complex: Midnight(20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5787,7 +5787,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Linaria(4)Curio(4)Claude ES(3)Ruina(3)Red Clad Flam.(3)Cynthia(2)Elseal(2)Moonlight Flower(2)Forlorn Thespian(2)Claude(2)Dewey(2)Sevyn(2)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5898,7 +5898,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Water, Crystal</t>
+          <t>Water,Crystal</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5935,7 +5935,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Fire,Shade</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Dreamslip Tower of Time(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6046,12 +6046,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Dreamslip Tower of Time(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6120,12 +6120,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Dragon Palace(10%20%)Sea of Ice(20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Wind,Thunder</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>505★</t>
+          <t>5★</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -6490,7 +6490,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Crystal</t>
+          <t>Shadow- farmable ▽(expand)▽Antiquity Zerberiya Continent: Crystal(20%)Antiquity Zerberiya Continent: Shade(20%)Antiquity Zerberiya Continent: Thunder(20%)City of Lost Paradise(20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Fire,Shade</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Water,Thunder</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6754,7 +6754,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6828,7 +6828,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6860,7 +6860,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>Earth,Shade</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -7040,12 +7040,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Wind, Crystal</t>
+          <t>Wind,Crystal</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7230,12 +7230,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Forgotten Tale: Unborn Visions(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -7267,12 +7267,12 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Forgotten Tale: Unborn Visions(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Crystal</t>
+          <t>Shadow- farmable ▽(expand)▽Antiquity Zerberiya Continent: Crystal(20%)Antiquity Zerberiya Continent: Shade(20%)Antiquity Zerberiya Continent: Thunder(20%)City of Lost Paradise(20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -7415,7 +7415,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Wind, Crystal</t>
+          <t>Wind,Crystal</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -7452,12 +7452,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Mementos(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Wind,Thunder</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -7526,12 +7526,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Mementos(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -7600,7 +7600,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Fire,Shade</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>None,Water</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -8012,7 +8012,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -8049,7 +8049,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -8234,7 +8234,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -8410,7 +8410,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -8637,7 +8637,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Claude ES(3)Cynthia(3)Isuka ES(3)Melpiphia(3)Claude(3)Curio(3)Isuka(3)Sevyn(3)Veina(3)Breeno(2)Elseal(2)Moonlight Flower(2)Joker(2)Linaria(2)Forlorn Thespian(2)Cerrine(2)Dewey(2)Empel(2)</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -8859,7 +8859,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -8933,7 +8933,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -9113,12 +9113,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>None, Fire</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -9303,7 +9303,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -9367,7 +9367,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -9557,7 +9557,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Dogma Tower(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -9636,7 +9636,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -9774,7 +9774,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -9811,7 +9811,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>304★</t>
+          <t>4★</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -9858,7 +9858,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -9890,7 +9890,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Mayu's Dream World(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -9969,7 +9969,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Mayu's Dream World(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -10070,7 +10070,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -10149,12 +10149,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>None, Fire</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -10218,7 +10218,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -10292,7 +10292,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -10445,7 +10445,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Future Garulea Continent(2x25%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -10477,7 +10477,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -10630,7 +10630,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -10741,12 +10741,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Dragon Palace(10%20%)Sea of Ice(20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -10810,7 +10810,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -10963,7 +10963,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Claude ES(3)Cynthia(3)Isuka ES(3)Melpiphia(3)Claude(3)Curio(3)Isuka(3)Sevyn(3)Veina(3)Breeno(2)Elseal(2)Moonlight Flower(2)Joker(2)Linaria(2)Forlorn Thespian(2)Cerrine(2)Dewey(2)Empel(2)</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -11000,7 +11000,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Present Garulea Continent(2x25%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -11148,7 +11148,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>None, Earth</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -11217,7 +11217,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -11254,17 +11254,17 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Edax Unigan(2x25%)Miglance Castle(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Industrial Ruins(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -11333,7 +11333,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>None, Wind</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -11375,7 +11375,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -11449,7 +11449,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -11481,12 +11481,12 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Man-eating Marsh(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -11546,12 +11546,12 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>None, Earth</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -11620,7 +11620,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -11694,7 +11694,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -11773,7 +11773,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Fire,None</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Light- farmable ▽(expand)▽Xeno-Domain(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>are not always best to use in every situation, and can become outdated.True manifestweapon of another class can be useful if current class is without manifest.</t>
+          <t>Obtain</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -11879,7 +11879,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -11916,7 +11916,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>304★</t>
+          <t>4★</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -11953,7 +11953,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>5★ 성도각성</t>
+          <t>5★ SA</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">

--- a/04_data/csv/another_eden_characters_detailed.xlsx
+++ b/04_data/csv/another_eden_characters_detailed.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>earth, earth</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>wind, wind</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Isuka ES(4)Claude ES(2)Moonlight Flower(2)Ruina(2)Isuka(2)</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Fire,Crystal</t>
+          <t>fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Ewan(2)May(2)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Edax Unigan(2x25%)Miglance Castle(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>Claude ES(2)Melpiphia(2)Ruby-Sleeved Merchant(2)Utpalaka(2)Wryz(2)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Crystal</t>
+          <t>Lovely(2)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -860,7 +860,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Shade, Fire</t>
+          <t>fire, fire, fire, fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>fire, fire, fire, fire, fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Garambarrel(2)Vermillion Whip(2)Noble Blossom(2)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Nonold(3)Sevyn(3)Empel(2)Mayu(2)Melody(2)Mighty(2)Saki(2)Xianhua(2)Yakumo(2)Cerrine(2)Ruina(2)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1122,7 +1122,11 @@
           <t>5★ SA</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>Obtain</t>
@@ -1157,7 +1161,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1194,7 +1198,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind, wind, wind, wind</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1231,7 +1235,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Claude ES(2)Cynthia(2)Isuka ES(2)Forlorn Thespian(2)Ruina(2)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1266,7 +1270,11 @@
           <t>5★ SA</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Cyrus Albright(2)Krervo(2)Sevyn(2)Jet Tactician(2)Veina(2)Dewey(2)Ruina(2)</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>Obtain</t>
@@ -1301,7 +1309,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1359,7 +1367,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Edge of Contradiction(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>Hozuki(2)Premaya(2)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1396,7 +1404,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Edge of Contradiction(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1433,7 +1441,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1470,7 +1478,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1507,7 +1515,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>wind, wind, wind</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1544,7 +1552,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Senya(2)Tohme(2)Tsukiha(2)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1581,7 +1589,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Shade, Fire</t>
+          <t>fire, fire, fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1618,7 +1626,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind, wind, wind, wind, wind</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1655,7 +1663,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire, fire, fire</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1692,7 +1700,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Evil's Nest Arena(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1729,7 +1737,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Evil's Nest Arena(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1766,7 +1774,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Evil's Nest Arena(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1803,7 +1811,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wind, Shade</t>
+          <t>Pasia(2)Riica(2)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1840,7 +1848,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Evil's Nest Arena(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1877,7 +1885,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>None, Earth</t>
+          <t>Benedict(2)Cyuca(2)Felmina ES(2)Yazuki(2)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1914,7 +1922,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Sazanca(3)Wryz(3)Ilulu(2)Crimson Reaper(2)Mazrika(2)Yio(2)Zeviro(2)Aldo(2)Cerius(2)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1951,7 +1959,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>fire, fire, fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1988,7 +1996,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Deirdre(2)Violet(2)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2044,7 +2052,11 @@
           <t>5★ SA</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Bivette(2)Lele(2)Mariel(2)Rosetta(2)Jet Tactician(2)</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>Obtain</t>
@@ -2079,7 +2091,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Water, Crystal</t>
+          <t>Alphen(2)Deirdre(2)Morgana(2)Shannon(2)Beautiful Stranger(2)Elga(2)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2158,7 +2170,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>water, water, water</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2193,7 +2205,11 @@
           <t>5★ SA</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Krervo(3)Empel(2)Nonold(2)Sevyn(2)Xianhua(2)</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>Obtain</t>
@@ -2249,7 +2265,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Earth,Thunder</t>
+          <t>Skull(3)Biaka(2)Ewan(2)Melina(2)Pasia(2)Suzette ES(2)Rodeia(2)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2286,7 +2302,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Bertrand(2)Miyu ES(2)Soira(2)Suzette(2)Tiramisu(2)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2321,7 +2337,11 @@
           <t>5★ SA</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>Obtain</t>
@@ -2356,7 +2376,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2393,7 +2413,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>Yipha(2)Dream Weaver(2)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2430,7 +2450,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2467,7 +2487,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Utpalaka(3)Kikyo(2)Nagi(2)Necoco(2)Yio(2)Cerius(2)Tsubame(2)Nocturne Ninja(2)Wryz(2)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2504,7 +2524,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2604,7 +2624,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>earth, earth</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2641,7 +2661,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Crystal</t>
+          <t>Melina(3)Melina ES(3)Anabel(2)Myron(2)Prai(2)Rosetta(2)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2699,7 +2719,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Crystal</t>
+          <t>Selfless Seeker(2)Necoco ES(2)Shionne(2)Ashtear(2)Dewey(2)Joker(2)Jet Tactician(2)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2736,7 +2756,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Water, Shade</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2773,7 +2793,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Fire, Water, Thunder</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2810,7 +2830,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2847,7 +2867,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Path of Avarice(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2884,7 +2904,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Path of Avarice(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2921,7 +2941,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Hozuki(2)Laclair(2)Sazanca(2)Utpalaka(2)Wryz(2)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2958,7 +2978,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Darkrealm - Wyrmking's Domain(10%20%)Wyrmrest Isle - Dragon's Depths(10%20%)Wyrmrest Isle - Quadra Wastes(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>Utpalaka(3)Tiramisu(2)Aldo(2)Cerius(2)Sazanca(2)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2995,7 +3015,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire, fire</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3032,7 +3052,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3069,7 +3089,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Izuna(2)Jet Tactician(2)Xianhua(2)Yuna(2)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3104,7 +3124,11 @@
           <t>5★</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>Obtain</t>
@@ -3139,7 +3163,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3218,7 +3242,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3255,7 +3279,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>water, water, water</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3292,7 +3316,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3329,7 +3353,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3366,7 +3390,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Benedict(2)Cyuca(2)Yazuki(2)Zilva(2)Deirdre(2)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3403,7 +3427,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Claude ES(2)Cynthia(2)Isuka ES(2)Forlorn Thespian(2)Ruina(2)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3440,7 +3464,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Hozuki(2)Klaudia(2)Silver Striker(2)Rovella(2)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3477,7 +3501,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>water, water</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3535,7 +3559,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3593,7 +3617,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Water,Shade</t>
+          <t>Altena(2)Claude(2)Tsukiha ES(2)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3630,7 +3654,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Senya(2)Tohme(2)Tsukiha(2)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3667,7 +3691,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Water, Shade</t>
+          <t>Yipha(2)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3704,7 +3728,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3741,7 +3765,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Future Garulea Continent(2x25%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>Ashtear(2)Dewey(2)Red Clad Flam.(2)Felmina(2)Hardy(2)Undercover Scribe(2)Ruina(2)Sevyn(2)Yazuki(2)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3778,7 +3802,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3813,7 +3837,11 @@
           <t>5★</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Krervo(2)Nonold(2)Xianhua(2)</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>Obtain</t>
@@ -3869,7 +3897,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3906,7 +3934,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>fire, fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3943,7 +3971,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Melina ES(2)Nocturne Ninja(2)Rosetta(2)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3980,7 +4008,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>wind, wind</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4017,7 +4045,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Vermillion Whip(2)Komachi(2)Noble Blossom(2)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4054,7 +4082,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Omegapolis(2x25%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4112,7 +4140,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Deirdre(2)Violet(2)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4233,7 +4261,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4270,7 +4298,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Fire, Shade</t>
+          <t>fire, fire</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4307,7 +4335,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire, fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4344,7 +4372,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4381,7 +4409,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4418,7 +4446,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Dream Flower(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4455,7 +4483,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Claude ES(2)Isuka ES(2)Linaria(2)Ruina(2)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4492,7 +4520,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Dream Flower(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4529,7 +4557,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Alma(2)Selfless Seeker(2)Violet(2)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4566,7 +4594,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4603,7 +4631,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind, wind</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4640,7 +4668,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Cynthia(3)Isuka ES(3)Forlorn Thespian(3)Ruina(3)Aldo(2)Elseal(2)Guildna(2)Moonlight Flower(2)Linaria(2)Miyu(2)Curio(2)Isuka(2)Noble Blossom(2)</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4677,7 +4705,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4714,7 +4742,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Anabel ES(2)Bertrand(2)Miyu ES(2)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4751,7 +4779,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4788,7 +4816,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4825,7 +4853,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Bivette(2)Feinne(2)Mariel(2)Rosetta(2)Jet Tactician(2)</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4862,7 +4890,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Crystal</t>
+          <t>Selfless Seeker(2)Necoco ES(2)Shionne(2)Ashtear(2)Dewey(2)Joker(2)Jet Tactician(2)</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4899,7 +4927,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Daisy(2)Melina(2)Prai(2)Toova ES(2)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4936,7 +4964,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Present Garulea Continent(2x25%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>wind, wind, wind</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4973,7 +5001,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>fire, fire, fire, fire, fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5010,7 +5038,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5047,7 +5075,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5084,7 +5112,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5121,7 +5149,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Water,Shade</t>
+          <t>Altena(2)Claude(2)Tsukiha ES(2)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5158,7 +5186,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5195,7 +5223,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Earth,Shade</t>
+          <t>Melina(2)Melina ES(2)Mistrare(2)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5232,7 +5260,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5269,7 +5297,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>earth, earth, earth</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5306,7 +5334,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Iscariot(20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>water, water</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5343,7 +5371,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5380,7 +5408,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Water,Thunder</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5417,7 +5445,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Dreamslip Tower of Time(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5454,7 +5482,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>Suzette(2)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5491,7 +5519,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5528,7 +5556,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Wind,Crystal</t>
+          <t>wind, wind</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5565,7 +5593,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>wind, wind</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5602,7 +5630,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Fire,Crystal</t>
+          <t>fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5639,7 +5667,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>water, water, water</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5676,7 +5704,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Earth,Shade</t>
+          <t>Curio(3)Isuka(2)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5713,7 +5741,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Gariyu(2)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5750,7 +5778,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Iscariot(20%)Sapient Complex: Midnight(20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>wind, wind, wind, wind, wind, wind, wind</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5787,7 +5815,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Linaria(4)Curio(4)Claude ES(3)Ruina(3)Red Clad Flam.(3)Cynthia(2)Elseal(2)Moonlight Flower(2)Forlorn Thespian(2)Claude(2)Dewey(2)Sevyn(2)</t>
+          <t>fire, fire</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5824,7 +5852,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>Yipha(2)Dream Weaver(2)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5861,7 +5889,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
+          <t>Clarte(2)Izuna(2)Raven(2)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5898,7 +5926,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Water,Crystal</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5935,7 +5963,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Fire,Shade</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5972,7 +6000,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Dreamslip Tower of Time(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6009,7 +6037,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind, wind, wind, wind</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6046,7 +6074,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Dreamslip Tower of Time(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6083,7 +6111,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6120,7 +6148,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Dragon Palace(10%20%)Sea of Ice(20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>Miyu ES(2)Noble Blossom(2)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6157,7 +6185,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>fire, fire, fire</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6194,7 +6222,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6231,7 +6259,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Wind,Thunder</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6268,7 +6296,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Kagurame(2)</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6305,7 +6333,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Vermillion Whip(2)Komachi(2)Noble Blossom(2)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6342,7 +6370,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6379,7 +6407,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>wind, wind, wind</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6416,7 +6444,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Nocturne Ninja(3)Lingli(2)Nero(2)Strawboy(2)Sazanca(2)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6453,7 +6481,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6490,7 +6518,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Shadow- farmable ▽(expand)▽Antiquity Zerberiya Continent: Crystal(20%)Antiquity Zerberiya Continent: Shade(20%)Antiquity Zerberiya Continent: Thunder(20%)City of Lost Paradise(20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6527,7 +6555,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Fire,Shade</t>
+          <t>fire, fire</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6564,7 +6592,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Anabel ES(2)Suzette(2)Wryz(2)</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6601,7 +6629,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water, water</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6638,7 +6666,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Water,Thunder</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6675,7 +6703,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Dream Weaver(3)Myrus(2)Mazrika(2)Zeviro(2)</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6712,7 +6740,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6749,7 +6777,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire, fire</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6786,7 +6814,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Veina(2)</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6823,7 +6851,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6860,7 +6888,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Earth,Shade</t>
+          <t>Melina(2)Melina ES(2)Mistrare(2)</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6897,7 +6925,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>fire, fire</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6934,7 +6962,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6971,7 +6999,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire, fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -7008,7 +7036,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -7045,7 +7073,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Wind,Crystal</t>
+          <t>Oboro(2)Xianhua(2)</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -7082,7 +7110,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>wind, wind</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -7119,7 +7147,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -7156,7 +7184,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>fire, fire, fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -7193,7 +7221,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -7230,7 +7258,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Forgotten Tale: Unborn Visions(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -7267,7 +7295,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Forgotten Tale: Unborn Visions(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -7304,7 +7332,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -7341,7 +7369,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -7378,7 +7406,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Shadow- farmable ▽(expand)▽Antiquity Zerberiya Continent: Crystal(20%)Antiquity Zerberiya Continent: Shade(20%)Antiquity Zerberiya Continent: Thunder(20%)City of Lost Paradise(20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -7415,7 +7443,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Wind,Crystal</t>
+          <t>wind, wind</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -7452,7 +7480,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Mementos(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>Biaka(3)Virtual Reflection(3)Joker(3)Violet(3)Pasia(2)</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -7489,7 +7517,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Wind,Thunder</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -7526,7 +7554,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Mementos(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>Joker(4)Skull(3)Alphen(2)Minalca(2)Morgana(2)Naylia(2)Biaka(2)Shionne(2)</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -7563,7 +7591,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -7600,7 +7628,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Fire,Shade</t>
+          <t>fire, fire</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -7637,7 +7665,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Lovinia(2)Mistrare(2)Parisa(2)Pizzica(2)Hoarfrost Songstress(2)</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7674,7 +7702,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Daisy(2)Melina(2)Prai(2)Toova ES(2)</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7711,7 +7739,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Jillfunny(2)Beautiful Stranger(2)Oboro(2)Riica(2)</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -7748,7 +7776,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>fire, fire, fire</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -7785,7 +7813,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>None,Water</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -7822,7 +7850,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind, wind</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -7859,7 +7887,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7896,7 +7924,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>water, water, water</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -7933,7 +7961,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Breeno(2)Deirdre(2)Miyu(2)Radias(2)Thillelille(2)Thillelille ES(2)</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -7970,7 +7998,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -8007,7 +8035,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Dunarith(2)Dream Weaver(2)</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -8044,7 +8072,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire, fire</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -8081,7 +8109,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Anabel ES(2)Suzette(2)Wryz(2)</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -8118,7 +8146,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -8155,7 +8183,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Cerrine(2)Hardy(2)Undercover Scribe(2)Deirdre(2)</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -8192,7 +8220,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Kagurame(2)</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -8229,7 +8257,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -8264,7 +8292,11 @@
           <t>5★</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr"/>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Intelligence of all enemies-20%and Type resistance-20%(1 turn)</t>
+        </is>
+      </c>
       <c r="E223" t="inlineStr">
         <is>
           <t>Obtain</t>
@@ -8299,7 +8331,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind, wind, wind, wind</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -8336,7 +8368,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>water, water</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -8366,21 +8398,9 @@
           <t>Strawboy (Magic)</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>5★</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
           <t>동방, Straw Dummy, Fists</t>
@@ -8403,21 +8423,9 @@
           <t>Strawboy (Slash)</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>5★</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
           <t>동방, Straw Dummy, Fists</t>
@@ -8440,21 +8448,9 @@
           <t>Strawboy (Blunt)</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>5★</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
           <t>동방, Straw Dummy, Fists</t>
@@ -8477,21 +8473,9 @@
           <t>Strawboy (Pierce)</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>5★</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
           <t>동방, Straw Dummy, Fists</t>
@@ -8514,21 +8498,9 @@
           <t>Strawboy (Healer)</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>5★</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
           <t>동방, Straw Dummy, Fists</t>
@@ -8558,7 +8530,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind, wind, wind, wind, wind, wind</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -8595,7 +8567,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Hozuki(2)Klaudia(2)Silver Striker(2)Rovella(2)</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -8632,7 +8604,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Eva(2)</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -8669,7 +8641,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -8706,7 +8678,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -8743,7 +8715,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Claude ES(3)Cynthia(3)Isuka ES(3)Melpiphia(3)Claude(3)Curio(3)Isuka(3)Sevyn(3)Veina(3)Breeno(2)Elseal(2)Moonlight Flower(2)Joker(2)Linaria(2)Forlorn Thespian(2)Cerrine(2)Dewey(2)Empel(2)</t>
+          <t>wind, wind, wind, wind, wind, wind, wind</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -8780,7 +8752,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -8817,7 +8789,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
+          <t>Claude(2)</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -8854,7 +8826,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Rosetta(3)Bivette(2)Feinne(2)Flammelapis(2)Lele(2)Jet Tactician(2)Yuna(2)</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8891,7 +8863,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Dream Weaver(3)Myrus(2)Mazrika(2)Zeviro(2)</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -8928,7 +8900,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Amy(2)</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8965,7 +8937,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -9002,7 +8974,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -9039,7 +9011,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>Sazanca(2)</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -9076,7 +9048,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -9113,7 +9085,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>None, Fire</t>
+          <t>fire, fire</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -9150,7 +9122,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Alphen(2)Deirdre(2)Jillfunny(2)Joker(2)Beautiful Stranger(2)Violet(2)</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -9187,7 +9159,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -9224,7 +9196,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water, water</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -9261,7 +9233,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Nocturne Ninja(3)Lingli(2)Nero(2)Strawboy(2)Sazanca(2)</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -9298,7 +9270,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -9335,7 +9307,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -9372,7 +9344,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -9409,7 +9381,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire, fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -9446,7 +9418,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -9483,7 +9455,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -9520,7 +9492,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Veina(2)</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -9557,7 +9529,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Dogma Tower(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -9594,7 +9566,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -9631,7 +9603,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -9668,7 +9640,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -9705,7 +9677,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -9742,7 +9714,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -9779,7 +9751,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire, fire</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -9816,7 +9788,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Jillfunny(2)Beautiful Stranger(2)Oboro(2)Riica(2)</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -9853,7 +9825,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind, wind, wind, wind</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -9890,7 +9862,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Mayu's Dream World(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>water, water</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -9927,7 +9899,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind, wind, wind, wind, wind, wind</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -9964,7 +9936,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water, water</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -10001,7 +9973,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Mayu's Dream World(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>water, water</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -10038,7 +10010,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>fire, fire, fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -10075,7 +10047,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -10112,7 +10084,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Cerrine(2)Hardy(2)Undercover Scribe(2)Deirdre(2)</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -10149,7 +10121,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>None, Fire</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -10186,7 +10158,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind, wind</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -10223,7 +10195,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Dunarith(2)Dream Weaver(2)</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -10260,7 +10232,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
+          <t>Hardy(2)Kula(2)Melina ES(2)</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -10297,7 +10269,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -10334,7 +10306,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Krervo(2)Mayu(2)Melody(2)Mighty(2)Saki(2)Sevyn(2)Xianhua(2)Yakumo(2)</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -10371,7 +10343,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>Benedict(2)Cyuca(2)Felmina ES(2)Yazuki(2)</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -10408,7 +10380,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -10445,7 +10417,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Future Garulea Continent(2x25%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>Ashtear(2)Dewey(2)Red Clad Flam.(2)Felmina(2)Hardy(2)Undercover Scribe(2)Ruina(2)Sevyn(2)Yazuki(2)</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -10482,7 +10454,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -10519,7 +10491,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind, wind</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -10556,7 +10528,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>fire, fire</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -10593,7 +10565,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -10630,7 +10602,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Toto Theater World(20%, rate: 24.8%)</t>
+          <t>Clarte(2)Izuna(2)Raven(2)</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -10667,7 +10639,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>Sazanca(2)</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -10704,7 +10676,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -10741,7 +10713,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Dragon Palace(10%20%)Sea of Ice(20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>Miyu ES(2)Noble Blossom(2)</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -10778,7 +10750,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Eva(2)</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -10815,7 +10787,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Flammelapis(2)Izuna(2)Mariel(2)Porcelain Pixie(2)Rosetta(2)Jet Tactician(2)Xianhua(2)</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -10852,7 +10824,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -10889,7 +10861,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind, wind, wind, wind</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -10926,7 +10898,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Foran(2)Hismena(2)</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -10963,7 +10935,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Claude ES(3)Cynthia(3)Isuka ES(3)Melpiphia(3)Claude(3)Curio(3)Isuka(3)Sevyn(3)Veina(3)Breeno(2)Elseal(2)Moonlight Flower(2)Joker(2)Linaria(2)Forlorn Thespian(2)Cerrine(2)Dewey(2)Empel(2)</t>
+          <t>wind, wind, wind, wind, wind, wind, wind</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -11000,7 +10972,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Present Garulea Continent(2x25%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>wind, wind, wind</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -11037,7 +11009,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -11074,7 +11046,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -11111,7 +11083,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Breeno(2)Deirdre(2)Miyu(2)Radias(2)Thillelille(2)Thillelille ES(2)</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -11148,7 +11120,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>None, Earth</t>
+          <t>earth, earth</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -11185,7 +11157,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Lingli(2)Strawboy(2)Tsubame(2)Nocturne Ninja(2)</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -11222,7 +11194,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -11259,7 +11231,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Edax Unigan(2x25%)Miglance Castle(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>Claude ES(2)Melpiphia(2)Ruby-Sleeved Merchant(2)Utpalaka(2)Wryz(2)</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -11296,7 +11268,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Industrial Ruins(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>Lingli(2)Lokido(2)Lovely(2)Urania(2)</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -11333,7 +11305,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>None, Wind</t>
+          <t>wind, wind</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -11370,7 +11342,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire, fire</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -11407,7 +11379,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -11444,7 +11416,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Lovinia(2)Mistrare(2)Parisa(2)Pizzica(2)Hoarfrost Songstress(2)</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -11481,7 +11453,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Man-eating Marsh(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>water, water</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -11516,7 +11488,11 @@
           <t>5★</t>
         </is>
       </c>
-      <c r="D311" t="inlineStr"/>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Bivette(2)Lele(2)Mariel(2)Rosetta(2)Jet Tactician(2)</t>
+        </is>
+      </c>
       <c r="E311" t="inlineStr">
         <is>
           <t>Obtain</t>
@@ -11551,7 +11527,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>None, Earth</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -11588,7 +11564,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Amy(2)</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -11625,7 +11601,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Rosetta(3)Bivette(2)Feinne(2)Flammelapis(2)Lele(2)Jet Tactician(2)Yuna(2)</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -11662,7 +11638,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Ewan(2)Ashtear(2)</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -11699,7 +11675,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water, water</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -11736,7 +11712,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire, fire</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -11773,7 +11749,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Fire,None</t>
+          <t>fire, fire</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -11810,7 +11786,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Light- farmable ▽(expand)▽Xeno-Domain(10%20%)Toto Theater World(20%, rate: 24.8%)</t>
+          <t>Pasia(2)Thornbound Witch(2)Oboro(2)Shannon(2)</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -11847,7 +11823,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind, wind, wind, wind</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -11884,7 +11860,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire, fire, fire, fire</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -11921,7 +11897,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind, wind</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -11958,7 +11934,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -11995,7 +11971,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>earth</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -12032,7 +12008,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>wind, wind, wind, wind</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -12069,7 +12045,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Wenefica(2)</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -12106,7 +12082,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -12143,7 +12119,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -12180,7 +12156,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Garambarrel(2)Vermillion Whip(2)Noble Blossom(2)</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -12217,7 +12193,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Empel(2)Nonold(2)Sevyn(2)Xianhua(2)Yakumo(2)</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -12254,7 +12230,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Bivette(2)Feinne(2)Mariel(2)Rosetta(2)Jet Tactician(2)</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -12291,7 +12267,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire, fire, fire</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -12328,7 +12304,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Cyuca(2)</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -12365,7 +12341,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Thillelille(2)Thillelille ES(2)</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -12402,7 +12378,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>water, water</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -12439,7 +12415,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -12476,7 +12452,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>earth, earth, earth</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -12513,7 +12489,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -12550,7 +12526,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Iphi(2)Jet Tactician(2)</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -12587,7 +12563,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Earth</t>
+          <t>earth, earth</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -12624,7 +12600,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>water</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -12661,7 +12637,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>fire</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -12698,7 +12674,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Anabel ES(2)Bertrand(2)Miyu ES(2)</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -12735,7 +12711,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Sazanca(2)Utpalaka(2)</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -12772,7 +12748,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Tsukiha ES(2)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -12809,7 +12785,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -12846,7 +12822,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -12883,7 +12859,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -12920,7 +12896,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -12955,7 +12931,11 @@
           <t>3★</t>
         </is>
       </c>
-      <c r="D350" t="inlineStr"/>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Helena(2)Izuna(2)Raven(2)</t>
+        </is>
+      </c>
       <c r="E350" t="inlineStr">
         <is>
           <t>Obtain</t>
@@ -12990,7 +12970,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -13025,7 +13005,11 @@
           <t>3★</t>
         </is>
       </c>
-      <c r="D352" t="inlineStr"/>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Oboro(2)Tsukiha(2)</t>
+        </is>
+      </c>
       <c r="E352" t="inlineStr">
         <is>
           <t>Obtain</t>
@@ -13060,7 +13044,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -13097,7 +13081,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Alphen(2)Joker(2)Violet(2)</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -13134,7 +13118,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -13171,7 +13155,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Type resistance of all enemies-15%(1 turn)</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -13208,7 +13192,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -13245,7 +13229,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Biaka(2)Virtual Reflection(2)Riica(2)Thornbound Witch(2)Skull(2)Oboro(2)</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -13282,7 +13266,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Cyuca(2)Ilulu(2)Crimson Reaper(2)Mazrika(2)Renri(2)Cyan Scyther(2)Virtual Reflection(2)</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -13319,7 +13303,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -13356,7 +13340,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -13393,7 +13377,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -13428,7 +13412,11 @@
           <t>3★</t>
         </is>
       </c>
-      <c r="D363" t="inlineStr"/>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Senya(2)Sesta(2)Tsukiha(2)</t>
+        </is>
+      </c>
       <c r="E363" t="inlineStr">
         <is>
           <t>Obtain</t>
@@ -13463,7 +13451,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -13500,7 +13488,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>Amy(2)Lingli(2)Lovely(2)</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -13537,7 +13525,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -13574,7 +13562,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Light</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">

--- a/04_data/csv/another_eden_characters_detailed.xlsx
+++ b/04_data/csv/another_eden_characters_detailed.xlsx
@@ -424,7 +424,7 @@
     <col width="32" customWidth="1" min="1" max="1"/>
     <col width="19" customWidth="1" min="2" max="2"/>
     <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="50" customWidth="1" min="7" max="7"/>
@@ -485,7 +485,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>earth, earth</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>wind, wind</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ewan(2)May(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -737,9 +737,21 @@
           <t>Gunce AS</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5★</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Obtain</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
@@ -765,7 +777,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Claude ES(2)Melpiphia(2)Ruby-Sleeved Merchant(2)Utpalaka(2)Wryz(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -802,7 +814,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Lovely(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -860,7 +872,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -918,7 +930,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire, fire, fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -955,7 +967,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire, fire, fire, fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1013,7 +1025,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Garambarrel(2)Vermillion Whip(2)Noble Blossom(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1050,7 +1062,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1087,7 +1099,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nonold(3)Sevyn(3)Empel(2)Mayu(2)Melody(2)Mighty(2)Saki(2)Xianhua(2)Yakumo(2)Cerrine(2)Ruina(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1124,7 +1136,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1161,7 +1173,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1198,7 +1210,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>wind, wind, wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1235,7 +1247,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Claude ES(2)Cynthia(2)Isuka ES(2)Forlorn Thespian(2)Ruina(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1272,7 +1284,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cyrus Albright(2)Krervo(2)Sevyn(2)Jet Tactician(2)Veina(2)Dewey(2)Ruina(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1309,7 +1321,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1367,7 +1379,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hozuki(2)Premaya(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1404,7 +1416,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1441,7 +1453,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1478,7 +1490,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1515,7 +1527,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>wind, wind, wind</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1552,7 +1564,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Senya(2)Tohme(2)Tsukiha(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1589,7 +1601,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire, fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1626,7 +1638,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>wind, wind, wind, wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1663,7 +1675,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>fire, fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1700,7 +1712,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1737,7 +1749,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1774,7 +1786,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1811,7 +1823,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Pasia(2)Riica(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1848,7 +1860,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1885,7 +1897,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Benedict(2)Cyuca(2)Felmina ES(2)Yazuki(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1922,7 +1934,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sazanca(3)Wryz(3)Ilulu(2)Crimson Reaper(2)Mazrika(2)Yio(2)Zeviro(2)Aldo(2)Cerius(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1959,7 +1971,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire, fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1996,7 +2008,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Deirdre(2)Violet(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2026,9 +2038,21 @@
           <t>Tetra AS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5★</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Obtain</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
@@ -2054,7 +2078,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Bivette(2)Lele(2)Mariel(2)Rosetta(2)Jet Tactician(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2091,7 +2115,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Alphen(2)Deirdre(2)Morgana(2)Shannon(2)Beautiful Stranger(2)Elga(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2170,7 +2194,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>water, water, water</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2207,7 +2231,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Krervo(3)Empel(2)Nonold(2)Sevyn(2)Xianhua(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2237,9 +2261,21 @@
           <t>Kumos AS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>5★</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Obtain</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
@@ -2265,7 +2301,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Skull(3)Biaka(2)Ewan(2)Melina(2)Pasia(2)Suzette ES(2)Rodeia(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2302,7 +2338,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Bertrand(2)Miyu ES(2)Soira(2)Suzette(2)Tiramisu(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2339,7 +2375,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2376,7 +2412,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2413,7 +2449,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Yipha(2)Dream Weaver(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2450,7 +2486,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2487,7 +2523,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Utpalaka(3)Kikyo(2)Nagi(2)Necoco(2)Yio(2)Cerius(2)Tsubame(2)Nocturne Ninja(2)Wryz(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2524,7 +2560,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2624,7 +2660,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>earth, earth</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2661,7 +2697,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Melina(3)Melina ES(3)Anabel(2)Myron(2)Prai(2)Rosetta(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2719,7 +2755,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Selfless Seeker(2)Necoco ES(2)Shionne(2)Ashtear(2)Dewey(2)Joker(2)Jet Tactician(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2756,7 +2792,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2793,7 +2829,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2830,7 +2866,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2867,7 +2903,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2904,7 +2940,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2941,7 +2977,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Hozuki(2)Laclair(2)Sazanca(2)Utpalaka(2)Wryz(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2978,7 +3014,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Utpalaka(3)Tiramisu(2)Aldo(2)Cerius(2)Sazanca(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3015,7 +3051,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3052,7 +3088,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3089,7 +3125,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Izuna(2)Jet Tactician(2)Xianhua(2)Yuna(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3126,7 +3162,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3163,7 +3199,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3242,7 +3278,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3279,7 +3315,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>water, water, water</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3316,7 +3352,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3353,7 +3389,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3390,7 +3426,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Benedict(2)Cyuca(2)Yazuki(2)Zilva(2)Deirdre(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3427,7 +3463,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Claude ES(2)Cynthia(2)Isuka ES(2)Forlorn Thespian(2)Ruina(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3464,7 +3500,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Hozuki(2)Klaudia(2)Silver Striker(2)Rovella(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3501,7 +3537,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>water, water</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3559,7 +3595,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3617,7 +3653,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Altena(2)Claude(2)Tsukiha ES(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3654,7 +3690,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Senya(2)Tohme(2)Tsukiha(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3691,7 +3727,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Yipha(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3728,7 +3764,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3765,7 +3801,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Ashtear(2)Dewey(2)Red Clad Flam.(2)Felmina(2)Hardy(2)Undercover Scribe(2)Ruina(2)Sevyn(2)Yazuki(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3802,7 +3838,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3839,7 +3875,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Krervo(2)Nonold(2)Xianhua(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3897,7 +3933,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3934,7 +3970,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3971,7 +4007,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Melina ES(2)Nocturne Ninja(2)Rosetta(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4008,7 +4044,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>wind, wind</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4045,7 +4081,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Vermillion Whip(2)Komachi(2)Noble Blossom(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4082,7 +4118,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4140,7 +4176,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Deirdre(2)Violet(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4261,7 +4297,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4298,7 +4334,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4335,7 +4371,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4372,7 +4408,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4409,7 +4445,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4446,7 +4482,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4483,7 +4519,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Claude ES(2)Isuka ES(2)Linaria(2)Ruina(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4520,7 +4556,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4557,7 +4593,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Alma(2)Selfless Seeker(2)Violet(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4594,7 +4630,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4631,7 +4667,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4668,7 +4704,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4705,7 +4741,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4742,7 +4778,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Anabel ES(2)Bertrand(2)Miyu ES(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4779,7 +4815,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4816,7 +4852,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4853,7 +4889,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Bivette(2)Feinne(2)Mariel(2)Rosetta(2)Jet Tactician(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4890,7 +4926,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Selfless Seeker(2)Necoco ES(2)Shionne(2)Ashtear(2)Dewey(2)Joker(2)Jet Tactician(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4927,7 +4963,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Daisy(2)Melina(2)Prai(2)Toova ES(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4964,7 +5000,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>wind, wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5001,7 +5037,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire, fire, fire, fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5038,7 +5074,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5075,7 +5111,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5112,7 +5148,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5149,7 +5185,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Altena(2)Claude(2)Tsukiha ES(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5186,7 +5222,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5223,7 +5259,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Melina(2)Melina ES(2)Mistrare(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5260,7 +5296,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5297,7 +5333,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>earth, earth, earth</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5334,7 +5370,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>water, water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5371,7 +5407,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5408,7 +5444,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5445,7 +5481,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5482,7 +5518,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Suzette(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5519,7 +5555,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5556,7 +5592,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>wind, wind</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5593,7 +5629,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>wind, wind</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5630,7 +5666,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5667,7 +5703,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>water, water, water</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5704,7 +5740,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Curio(3)Isuka(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5741,7 +5777,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Gariyu(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5778,7 +5814,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>wind, wind, wind, wind, wind, wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5815,7 +5851,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5852,7 +5888,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Yipha(2)Dream Weaver(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5889,7 +5925,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Clarte(2)Izuna(2)Raven(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5926,7 +5962,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5963,7 +5999,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6000,7 +6036,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6037,7 +6073,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>wind, wind, wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6074,7 +6110,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6111,7 +6147,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6148,7 +6184,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Miyu ES(2)Noble Blossom(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6185,7 +6221,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>fire, fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6222,7 +6258,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6259,7 +6295,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6296,7 +6332,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Kagurame(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6333,7 +6369,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Vermillion Whip(2)Komachi(2)Noble Blossom(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6370,7 +6406,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6407,7 +6443,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>wind, wind, wind</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6444,7 +6480,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Nocturne Ninja(3)Lingli(2)Nero(2)Strawboy(2)Sazanca(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6481,7 +6517,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -6518,7 +6554,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6555,7 +6591,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6592,7 +6628,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Anabel ES(2)Suzette(2)Wryz(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6629,7 +6665,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>water, water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -6666,7 +6702,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6703,7 +6739,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Dream Weaver(3)Myrus(2)Mazrika(2)Zeviro(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6740,7 +6776,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6777,7 +6813,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6814,7 +6850,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Veina(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6851,7 +6887,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6888,7 +6924,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Melina(2)Melina ES(2)Mistrare(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -6925,7 +6961,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6962,7 +6998,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6999,7 +7035,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -7036,7 +7072,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -7073,7 +7109,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Oboro(2)Xianhua(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -7110,7 +7146,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>wind, wind</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -7147,7 +7183,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -7184,7 +7220,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire, fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -7221,7 +7257,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -7258,7 +7294,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -7295,7 +7331,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -7332,7 +7368,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -7369,7 +7405,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -7406,7 +7442,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -7443,7 +7479,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>wind, wind</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -7480,7 +7516,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Biaka(3)Virtual Reflection(3)Joker(3)Violet(3)Pasia(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -7517,7 +7553,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -7554,7 +7590,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Joker(4)Skull(3)Alphen(2)Minalca(2)Morgana(2)Naylia(2)Biaka(2)Shionne(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -7591,7 +7627,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -7628,7 +7664,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -7665,7 +7701,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Lovinia(2)Mistrare(2)Parisa(2)Pizzica(2)Hoarfrost Songstress(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7702,7 +7738,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Daisy(2)Melina(2)Prai(2)Toova ES(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7739,7 +7775,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Jillfunny(2)Beautiful Stranger(2)Oboro(2)Riica(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -7776,7 +7812,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>fire, fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -7813,7 +7849,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -7850,7 +7886,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -7887,7 +7923,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7924,7 +7960,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>water, water, water</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -7961,7 +7997,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Breeno(2)Deirdre(2)Miyu(2)Radias(2)Thillelille(2)Thillelille ES(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -7998,7 +8034,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -8035,7 +8071,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Dunarith(2)Dream Weaver(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -8072,7 +8108,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -8109,7 +8145,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Anabel ES(2)Suzette(2)Wryz(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -8146,7 +8182,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -8183,7 +8219,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Cerrine(2)Hardy(2)Undercover Scribe(2)Deirdre(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -8220,7 +8256,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Kagurame(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -8257,7 +8293,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -8294,7 +8330,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Intelligence of all enemies-20%and Type resistance-20%(1 turn)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -8331,7 +8367,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>wind, wind, wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -8368,7 +8404,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>water, water</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -8530,7 +8566,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>wind, wind, wind, wind, wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -8567,7 +8603,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Hozuki(2)Klaudia(2)Silver Striker(2)Rovella(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -8604,7 +8640,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Eva(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -8641,7 +8677,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -8678,7 +8714,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -8715,7 +8751,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>wind, wind, wind, wind, wind, wind, wind</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -8752,7 +8788,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -8789,7 +8825,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Claude(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -8826,7 +8862,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Rosetta(3)Bivette(2)Feinne(2)Flammelapis(2)Lele(2)Jet Tactician(2)Yuna(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8863,7 +8899,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Dream Weaver(3)Myrus(2)Mazrika(2)Zeviro(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -8900,7 +8936,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Amy(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8937,7 +8973,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -8974,7 +9010,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -9011,7 +9047,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Sazanca(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -9048,7 +9084,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -9085,7 +9121,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -9122,7 +9158,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Alphen(2)Deirdre(2)Jillfunny(2)Joker(2)Beautiful Stranger(2)Violet(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -9159,7 +9195,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -9196,7 +9232,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>water, water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -9233,7 +9269,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Nocturne Ninja(3)Lingli(2)Nero(2)Strawboy(2)Sazanca(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -9270,7 +9306,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -9307,7 +9343,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -9344,7 +9380,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -9381,7 +9417,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -9418,7 +9454,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -9455,7 +9491,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -9492,7 +9528,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Veina(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -9529,7 +9565,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -9566,7 +9602,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -9603,7 +9639,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -9640,7 +9676,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -9677,7 +9713,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -9714,7 +9750,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -9751,7 +9787,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -9788,7 +9824,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Jillfunny(2)Beautiful Stranger(2)Oboro(2)Riica(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -9825,7 +9861,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>wind, wind, wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -9862,7 +9898,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>water, water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -9899,7 +9935,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>wind, wind, wind, wind, wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -9936,7 +9972,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>water, water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -9973,7 +10009,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>water, water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -10010,7 +10046,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire, fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -10047,7 +10083,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -10084,7 +10120,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Cerrine(2)Hardy(2)Undercover Scribe(2)Deirdre(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -10121,7 +10157,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -10158,7 +10194,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -10195,7 +10231,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Dunarith(2)Dream Weaver(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -10232,7 +10268,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Hardy(2)Kula(2)Melina ES(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -10269,7 +10305,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -10306,7 +10342,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Krervo(2)Mayu(2)Melody(2)Mighty(2)Saki(2)Sevyn(2)Xianhua(2)Yakumo(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -10343,7 +10379,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Benedict(2)Cyuca(2)Felmina ES(2)Yazuki(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -10380,7 +10416,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -10417,7 +10453,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Ashtear(2)Dewey(2)Red Clad Flam.(2)Felmina(2)Hardy(2)Undercover Scribe(2)Ruina(2)Sevyn(2)Yazuki(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -10454,7 +10490,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -10491,7 +10527,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -10528,7 +10564,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -10565,7 +10601,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -10602,7 +10638,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Clarte(2)Izuna(2)Raven(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -10639,7 +10675,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Sazanca(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -10676,7 +10712,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -10713,7 +10749,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Miyu ES(2)Noble Blossom(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -10750,7 +10786,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Eva(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -10787,7 +10823,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Flammelapis(2)Izuna(2)Mariel(2)Porcelain Pixie(2)Rosetta(2)Jet Tactician(2)Xianhua(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -10824,7 +10860,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -10861,7 +10897,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>wind, wind, wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -10898,7 +10934,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Foran(2)Hismena(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -10935,7 +10971,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>wind, wind, wind, wind, wind, wind, wind</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -10972,7 +11008,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>wind, wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -11009,7 +11045,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -11046,7 +11082,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -11083,7 +11119,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Breeno(2)Deirdre(2)Miyu(2)Radias(2)Thillelille(2)Thillelille ES(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -11120,7 +11156,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>earth, earth</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -11157,7 +11193,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Lingli(2)Strawboy(2)Tsubame(2)Nocturne Ninja(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -11194,7 +11230,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -11231,7 +11267,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Claude ES(2)Melpiphia(2)Ruby-Sleeved Merchant(2)Utpalaka(2)Wryz(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -11268,7 +11304,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Lingli(2)Lokido(2)Lovely(2)Urania(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -11305,7 +11341,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>wind, wind</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -11342,7 +11378,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -11379,7 +11415,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -11416,7 +11452,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Lovinia(2)Mistrare(2)Parisa(2)Pizzica(2)Hoarfrost Songstress(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -11453,7 +11489,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>water, water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -11490,7 +11526,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Bivette(2)Lele(2)Mariel(2)Rosetta(2)Jet Tactician(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -11527,7 +11563,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -11564,7 +11600,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Amy(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -11601,7 +11637,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Rosetta(3)Bivette(2)Feinne(2)Flammelapis(2)Lele(2)Jet Tactician(2)Yuna(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -11638,7 +11674,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Ewan(2)Ashtear(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -11675,7 +11711,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>water, water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -11712,7 +11748,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -11749,7 +11785,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>fire, fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -11786,7 +11822,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Pasia(2)Thornbound Witch(2)Oboro(2)Shannon(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -11823,7 +11859,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>wind, wind, wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -11860,7 +11896,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>fire, fire, fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -11897,7 +11933,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -11934,7 +11970,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -11971,7 +12007,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>earth</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -12008,7 +12044,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>wind, wind, wind, wind</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -12045,7 +12081,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Wenefica(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -12082,7 +12118,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -12119,7 +12155,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -12156,7 +12192,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Garambarrel(2)Vermillion Whip(2)Noble Blossom(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -12193,7 +12229,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Empel(2)Nonold(2)Sevyn(2)Xianhua(2)Yakumo(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -12230,7 +12266,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Bivette(2)Feinne(2)Mariel(2)Rosetta(2)Jet Tactician(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -12267,7 +12303,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>fire, fire, fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -12304,7 +12340,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Cyuca(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -12341,7 +12377,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Thillelille(2)Thillelille ES(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -12378,7 +12414,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>water, water</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -12415,7 +12451,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -12452,7 +12488,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>earth, earth, earth</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -12489,7 +12525,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -12526,7 +12562,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Iphi(2)Jet Tactician(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -12563,7 +12599,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>earth, earth</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -12600,7 +12636,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -12637,7 +12673,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>fire</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -12674,7 +12710,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Anabel ES(2)Bertrand(2)Miyu ES(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -12711,7 +12747,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Sazanca(2)Utpalaka(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -12748,7 +12784,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Tsukiha ES(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -12785,7 +12821,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -12822,7 +12858,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -12859,7 +12895,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -12896,7 +12932,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -12933,7 +12969,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Helena(2)Izuna(2)Raven(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -12970,7 +13006,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -13007,7 +13043,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Oboro(2)Tsukiha(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -13044,7 +13080,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -13081,7 +13117,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Alphen(2)Joker(2)Violet(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -13118,7 +13154,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -13155,7 +13191,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Type resistance of all enemies-15%(1 turn)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -13192,7 +13228,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -13229,7 +13265,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Biaka(2)Virtual Reflection(2)Riica(2)Thornbound Witch(2)Skull(2)Oboro(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -13266,7 +13302,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Cyuca(2)Ilulu(2)Crimson Reaper(2)Mazrika(2)Renri(2)Cyan Scyther(2)Virtual Reflection(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -13303,7 +13339,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -13340,7 +13376,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -13377,7 +13413,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -13414,7 +13450,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Senya(2)Sesta(2)Tsukiha(2)</t>
+          <t>그림자</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -13451,7 +13487,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -13488,7 +13524,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Amy(2)Lingli(2)Lovely(2)</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -13525,7 +13561,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -13562,7 +13598,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>빛</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">

--- a/04_data/csv/another_eden_characters_detailed.xlsx
+++ b/04_data/csv/another_eden_characters_detailed.xlsx
@@ -427,7 +427,7 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,7 +490,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -498,11 +498,7 @@
           <t>가면, 기억 상실, 후드, Staff, Earth</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/레이븐 AS.png</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -527,7 +523,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -535,11 +531,7 @@
           <t>동방, Itto-Ryu, Land of Mi, Scallywag, Spicy Lover, Sword, Earth</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/붉은 소매의 행상인.png</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -562,21 +554,13 @@
           <t>그림자</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>Sweet tooth, 미식, Lost Laboratory, Ax, Wind</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/푸른 빛의 낫잡이 AS.png</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -601,7 +585,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -609,11 +593,7 @@
           <t>IDA 스쿨, COA, Sword, Fire</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/리나리아.png</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -638,7 +618,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -646,11 +626,7 @@
           <t>총, 무법자, Bow, Earth</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/의협의 사냥꾼.png</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -675,7 +651,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -683,11 +659,7 @@
           <t>IDA 스쿨, 총, 후드, Lost Laboratory, Fists, Fire, Crystal</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/빨간 외투의 화염술사 AS.png</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -712,7 +684,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -720,11 +692,7 @@
           <t>Chronos Empire, Miner, Hammer, Thunder</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/베레토 AS.png</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -742,22 +710,12 @@
           <t>5★</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="D9" t="n">
+        <v/>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Gunce AS.png</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -782,7 +740,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -790,11 +748,7 @@
           <t>Guiding Light, New Radical Dreamers, New Time Drift, Protagonist, 아르카디아, 바르오키, Concerto Artes, Demon Sword, 용, Forager, Itto-Ryu, Sword, Fire</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/알도 AS.png</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -819,7 +773,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -827,11 +781,7 @@
           <t>Dog lover, Forager, MMA, Nicknamer, Fists, Crystal</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/니르야.png</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -844,15 +794,15 @@
           <t>Jilya</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v/>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Jilya.png</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -877,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -885,11 +835,7 @@
           <t>Cat lover, 죽마고우, 동방, Itto-Ryu, Land of Mi, Mounted, Katana, Fire</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/시온 ES.png</t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -902,15 +848,15 @@
           <t>Laika</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v/>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Laika.png</t>
-        </is>
-      </c>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -935,7 +881,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -943,11 +889,7 @@
           <t>동방, Avenger, Cursed, Fairy, 후드, Land of Mi, Katana, Fire, Shade</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/센야 AS.png</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -972,7 +914,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -980,11 +922,7 @@
           <t>Cat lover, 동방, 독서가, 총, Itto-Ryu, Land of Mi, Staff, Fire</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/먹빛의 책사 AS.png</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -997,15 +935,15 @@
           <t>Kuramaru</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v/>
+      </c>
+      <c r="D17" t="n">
+        <v/>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Kuramaru.png</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1030,7 +968,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1038,11 +976,7 @@
           <t>동방, Land of Mi, Lance, Earth</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/코마치 AS.png</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1067,7 +1001,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1075,11 +1009,7 @@
           <t>동방, Minstrel, Fairy, Bow, Water</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/빙무의 가희.png</t>
-        </is>
-      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1104,7 +1034,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1112,11 +1042,7 @@
           <t>안경, 과학자, Forager, KMS, Staff</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/쿨레르보 AS.png</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1141,7 +1067,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1149,11 +1075,7 @@
           <t>동방, Fairy, 장례, Sharp Ears, Hammer, Shade</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/카구라메.png</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1178,7 +1100,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1186,11 +1108,7 @@
           <t>마수, 독서가, Sword, Earth</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/적막의 연기자.png</t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1213,21 +1131,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
           <t>Cat lover, 동방, Animal Talker, Fairy, Land of Mi, Ax, Earth</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/네코코 ES.png</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1252,7 +1162,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1260,11 +1170,7 @@
           <t>독서가, Weapons, Sword, Water</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/엘실 AS.png</t>
-        </is>
-      </c>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1289,7 +1195,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1297,11 +1203,7 @@
           <t>안경, 아틀리에, 독서가, Staff</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/엠펠.png</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1326,7 +1228,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1334,11 +1236,7 @@
           <t>프리아레스, Fists, Earth</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/이드.png</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1351,15 +1249,15 @@
           <t>Hazama</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v/>
+      </c>
+      <c r="D27" t="n">
+        <v/>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Hazama.png</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1384,7 +1282,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1392,11 +1290,7 @@
           <t>요리, 아틀리에, Bow, Water</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/클라우디아.png</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1421,7 +1315,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1429,11 +1323,7 @@
           <t>아틀리에, Forager, Miner, Staff, Fire</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/라이자.png</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1458,7 +1348,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1466,11 +1356,7 @@
           <t>동방, 가면, 기억 상실, Estrangement, Staff, Thunder</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/이즈나.png</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1495,7 +1381,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1503,11 +1389,7 @@
           <t>독서가, Fists, Fire</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/루프스 AS.png</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1532,7 +1414,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1540,11 +1422,7 @@
           <t>Cat lover, 동방, Glutton, Land of Mi, Ninja, Fists, Wind</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/까마귀 밤의 밀정.png</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1569,7 +1447,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1577,11 +1455,7 @@
           <t>Avenger, Katana, Wind</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/세스타 AS.png</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1606,7 +1480,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1614,11 +1488,7 @@
           <t>동방, Avenger, Cursed, Fairy, 후드, Land of Mi, Katana, Fire, Shade</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/센야.png</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1643,7 +1513,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1651,11 +1521,7 @@
           <t>Cat lover, 죽마고우, 동방, Itto-Ryu, Land of Mi, Mounted, Spicy Lover, Katana, Water</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/시구레 ES.png</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1680,7 +1546,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1688,11 +1554,7 @@
           <t>요리, 동방, Land of Shin, MMA, Fists, Fire</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/링리 AS.png</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1717,7 +1579,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1725,11 +1587,7 @@
           <t>Sweet tooth, KOF, MMA, Fists, Water</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/쿨라.png</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1754,7 +1612,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1762,11 +1620,7 @@
           <t>KOF, MMA, Mounted, Fists, Fire</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/쿄.png</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1791,7 +1645,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1799,11 +1653,7 @@
           <t>KOF, 상사병, MMA, Ninja, Fists, Fire</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/마이.png</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1828,7 +1678,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1836,11 +1686,7 @@
           <t>Cat lover, Cursed, 후드, 상사병, Hammer, Wind, Shade</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/가시나무 저주의 여인.png</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1865,7 +1711,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1873,11 +1719,7 @@
           <t>KOF, MMA, Fists, Earth</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/테리.png</t>
-        </is>
-      </c>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1900,21 +1742,13 @@
           <t>그림자</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
           <t>미술, Forager, 무법자, Ax, Earth</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/질버 AS.png</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1937,21 +1771,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
           <t>아르카디아, 용, Dragon Killer, 프리아레스, Ax, Thunder</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/우츠하라.png</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1976,7 +1802,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1984,11 +1810,7 @@
           <t>독서가, 총, 무법자, Spicy Lover, Fists, Fire</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/도희의 자객.png</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2013,7 +1835,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2021,11 +1843,7 @@
           <t>Chronos Empire, Glutton, 밀리터리, 무법자, Sword, Fire</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/미나르카 AS.png</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2043,22 +1861,12 @@
           <t>5★</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="D46" t="n">
+        <v/>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Tetra AS.png</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2083,7 +1891,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검, 지팡이</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2091,11 +1899,7 @@
           <t>Cat lover, 요리, 바르오키, Demon Sword, 지오, Staff</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/피네 AS.png</t>
-        </is>
-      </c>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2120,7 +1924,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2128,11 +1932,7 @@
           <t>Cat lover, 기억 상실, 후드, Sword, Water, Crystal</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/질퍼니.png</t>
-        </is>
-      </c>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2145,15 +1945,15 @@
           <t>Pyggie</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v/>
+      </c>
+      <c r="D49" t="n">
+        <v/>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Pyggie.png</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2166,15 +1966,15 @@
           <t>Thysía</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+      <c r="C50" t="n">
+        <v/>
+      </c>
+      <c r="D50" t="n">
+        <v/>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Thysía.png</t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2197,21 +1997,13 @@
           <t>그림자</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
           <t>마수, Sweet tooth, 후드, Napper, 프리아레스, Ax, Water</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/마츠리카.png</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2236,7 +2028,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2244,11 +2036,7 @@
           <t>Estrangement, KMS, Staff, Shade</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/야쿠모 AS.png</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2266,22 +2054,12 @@
           <t>5★</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="D53" t="n">
+        <v/>
+      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Kumos AS.png</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2306,7 +2084,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2314,11 +2092,7 @@
           <t>가면, Sweet tooth, 후드, Hammer, Earth, Thunder</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/전영의 샛별.png</t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2343,7 +2117,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2351,11 +2125,7 @@
           <t>미글렌스 왕궁, Sweet tooth, Mounted, 방패, Sword, Water</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/아나벨 ES.png</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2380,7 +2150,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2388,11 +2158,7 @@
           <t>동방, 과학자, 합성인간, KMS, Staff</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/셴화.png</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2417,7 +2183,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2425,11 +2191,7 @@
           <t>아르카디아, Staff, Earth</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/쿠치나와.png</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2454,7 +2216,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2462,11 +2224,7 @@
           <t>Dog lover, 프리아레스, Spicy Lover, Hammer, Earth</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/히나기쿠 AS.png</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2491,7 +2249,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2499,11 +2257,7 @@
           <t>엘프, Lance, Water, Crystal</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/이벨라 AS.png</t>
-        </is>
-      </c>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2526,21 +2280,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
           <t>동방, 아르카디아, Dragon Killer, Forager, Glutton, 방패, Ax, Fire</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/사잔카.png</t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2565,7 +2311,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2573,11 +2319,7 @@
           <t>엘프, 아르카디아, Nicknamer, Sword, Wind</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/멜피피아.png</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2590,15 +2332,15 @@
           <t>Iridian (Attack)</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
+      <c r="C62" t="n">
+        <v/>
+      </c>
+      <c r="D62" t="n">
+        <v/>
+      </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Iridian (Attack).png</t>
-        </is>
-      </c>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2611,15 +2353,15 @@
           <t>Iridian (Defense)</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="C63" t="n">
+        <v/>
+      </c>
+      <c r="D63" t="n">
+        <v/>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Iridian (Defense).png</t>
-        </is>
-      </c>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2632,15 +2374,15 @@
           <t>Iridian (Heal)</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="C64" t="n">
+        <v/>
+      </c>
+      <c r="D64" t="n">
+        <v/>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Iridian (Heal).png</t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2665,7 +2407,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2673,11 +2415,7 @@
           <t>동방, Itto-Ryu, Land of Mi, Katana, Earth</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/국화의검색.png</t>
-        </is>
-      </c>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2702,7 +2440,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2710,11 +2448,7 @@
           <t>Clergy, Sweet tooth, West, Sword, Fire, Shade</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/틸릴 ES.png</t>
-        </is>
-      </c>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2727,15 +2461,15 @@
           <t>Moke</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
+      <c r="C67" t="n">
+        <v/>
+      </c>
+      <c r="D67" t="n">
+        <v/>
+      </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Moke.png</t>
-        </is>
-      </c>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2760,7 +2494,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2768,11 +2502,7 @@
           <t>Cat lover, 안경, 연금술사, 총, Bow, Crystal</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/알마 AS.png</t>
-        </is>
-      </c>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2797,7 +2527,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2805,11 +2535,7 @@
           <t>Avenger, 바르오키, Cursed, Bow, Water, Shade</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/웨네피카.png</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2834,7 +2560,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2842,11 +2568,7 @@
           <t>독서가, Traveler, Staff, Fire, Water, Thunder</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/사이러스 (협주).png</t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2871,7 +2593,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2879,11 +2601,7 @@
           <t>Cat lover, 동방, 가면, Itto-Ryu, KMS, 상사병, Katana, Thunder</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/오보로.png</t>
-        </is>
-      </c>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2908,7 +2626,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2916,11 +2634,7 @@
           <t>Traveler, Bow, Fire</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/파르티티오.png</t>
-        </is>
-      </c>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2945,7 +2659,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2953,11 +2667,7 @@
           <t>Traveler, Fists, Thunder</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/티티.png</t>
-        </is>
-      </c>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2982,7 +2692,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2990,11 +2700,7 @@
           <t>아르카디아, Dragon Killer, Spicy Lover, Bow, Earth</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/세리에스.png</t>
-        </is>
-      </c>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3019,7 +2725,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3027,11 +2733,7 @@
           <t>아르카디아, Cursed, 용, Dragon Killer, Lance, Water</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/류제.png</t>
-        </is>
-      </c>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3056,7 +2758,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3064,11 +2766,7 @@
           <t>과학자, Forager, 총, Staff</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/폼 AS.png</t>
-        </is>
-      </c>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3091,21 +2789,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
           <t>Estrangement, Ax, Fire, Thunder</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/오를레아 AS.png</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3130,7 +2820,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3138,11 +2828,7 @@
           <t>동방, Bind, Land of Shin, Staff, Earth</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/백자의 마인.png</t>
-        </is>
-      </c>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3167,7 +2853,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3175,11 +2861,7 @@
           <t>Chronos Empire, 미래 혁명가, Paradoxical Dreamers' Leader, 시간의 황자, Staff, Thunder</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/캄라녜쥬.png</t>
-        </is>
-      </c>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3204,7 +2886,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3212,11 +2894,7 @@
           <t>Chronos Empire, Miner, Hammer, Thunder</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/베레토.png</t>
-        </is>
-      </c>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3229,15 +2907,15 @@
           <t>Gunce</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
+      <c r="C81" t="n">
+        <v/>
+      </c>
+      <c r="D81" t="n">
+        <v/>
+      </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Gunce.png</t>
-        </is>
-      </c>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3250,15 +2928,15 @@
           <t>Hyuga</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
+      <c r="C82" t="n">
+        <v/>
+      </c>
+      <c r="D82" t="n">
+        <v/>
+      </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Hyuga.png</t>
-        </is>
-      </c>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3283,7 +2961,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3291,11 +2969,7 @@
           <t>Minstrel, Cursed, Bow, Fire</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/파리사 AS.png</t>
-        </is>
-      </c>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3320,7 +2994,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3328,11 +3002,7 @@
           <t>마수, Minstrel, 프리아레스, Spicy Lover, Staff, Water</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/꿈의 음유 시인.png</t>
-        </is>
-      </c>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3357,7 +3027,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3365,11 +3035,7 @@
           <t>IDA 스쿨, Estrangement, Staff, Wind</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/멜로디 AS.png</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3394,7 +3060,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3402,11 +3068,7 @@
           <t>과학자, Hammer, Wind</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/녹시스 AS.png</t>
-        </is>
-      </c>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3431,7 +3093,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3439,11 +3101,7 @@
           <t>미글렌스 왕궁, 후드, Ninja, 무법자, Fists, Wind</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/펠미나 ES.png</t>
-        </is>
-      </c>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3468,7 +3126,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3476,11 +3134,7 @@
           <t>독서가, Weapons, Sword, Water</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/엘실.png</t>
-        </is>
-      </c>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3505,7 +3159,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3513,11 +3167,7 @@
           <t>요리, Lost Laboratory, Machinery, Bow, Earth</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/프레메아 AS.png</t>
-        </is>
-      </c>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3540,21 +3190,13 @@
           <t>그림자</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
           <t>가면, 프리아레스, Ax, Water</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/심홍의 사자.png</t>
-        </is>
-      </c>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3567,15 +3209,15 @@
           <t>Limil</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
+      <c r="C91" t="n">
+        <v/>
+      </c>
+      <c r="D91" t="n">
+        <v/>
+      </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Limil.png</t>
-        </is>
-      </c>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3600,7 +3242,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3608,11 +3250,7 @@
           <t>Minstrel, 북방, Bow, Fire</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/피치카 AS.png</t>
-        </is>
-      </c>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3625,15 +3263,15 @@
           <t>Pisce</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+      <c r="C93" t="n">
+        <v/>
+      </c>
+      <c r="D93" t="n">
+        <v/>
+      </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Pisce.png</t>
-        </is>
-      </c>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3658,7 +3296,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3666,11 +3304,7 @@
           <t>기억 상실, 후드, 왕족, Bow, Water, Shade</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/노나 AS.png</t>
-        </is>
-      </c>
+      <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3695,7 +3329,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3703,11 +3337,7 @@
           <t>Avenger, Katana, Wind</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/세스타.png</t>
-        </is>
-      </c>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3732,7 +3362,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3740,11 +3370,7 @@
           <t>장례, Nicknamer, Spirit-fused, Staff, Earth</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/투바 ES.png</t>
-        </is>
-      </c>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3769,7 +3395,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3777,11 +3403,7 @@
           <t>요리, 드워프, Nicknamer, Fists, Fire</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/러블리 AS.png</t>
-        </is>
-      </c>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3806,7 +3428,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3814,11 +3436,7 @@
           <t>안경, IDA 스쿨, 무법자, Fists, Earth</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/셀리느 AS.png</t>
-        </is>
-      </c>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3843,7 +3461,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3851,11 +3469,7 @@
           <t>기억 상실, Dog lover, KMS, Sword, Earth</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/잔영의 가인.png</t>
-        </is>
-      </c>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3880,7 +3494,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3888,11 +3502,7 @@
           <t>Estrangement, KMS, Staff, Shade</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/야쿠모.png</t>
-        </is>
-      </c>
+      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3905,15 +3515,15 @@
           <t>Kumos</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
+      <c r="C101" t="n">
+        <v/>
+      </c>
+      <c r="D101" t="n">
+        <v/>
+      </c>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Kumos.png</t>
-        </is>
-      </c>
+      <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3938,7 +3548,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3946,11 +3556,7 @@
           <t>안경, 독서가, 총, Lost Laboratory, 상사병, Fists, Water</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/듀이 AS.png</t>
-        </is>
-      </c>
+      <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3975,7 +3581,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3983,11 +3589,7 @@
           <t>요리, 동방, Fairy, Land of Shin, Spicy Lover, Lance, Fire</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/은주의 구미호.png</t>
-        </is>
-      </c>
+      <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4012,7 +3614,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4020,11 +3622,7 @@
           <t>Cat lover, Clergy, Staff</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/마리엘 ES.png</t>
-        </is>
-      </c>
+      <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4049,7 +3647,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4057,11 +3655,7 @@
           <t>동방, Land of Ro, Machinery, Katana, Wind</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/히이나 AS.png</t>
-        </is>
-      </c>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4086,7 +3680,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4094,11 +3688,7 @@
           <t>동방, Cursed, 타이탄, Lance, Wind</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/가람배럴 AS.png</t>
-        </is>
-      </c>
+      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4123,7 +3713,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4131,11 +3721,7 @@
           <t>안경, 과학자, 바르오키, 총, Fists, Fire</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/애쉬티어.png</t>
-        </is>
-      </c>
+      <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4148,15 +3734,15 @@
           <t>Korobo</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
+      <c r="C108" t="n">
+        <v/>
+      </c>
+      <c r="D108" t="n">
+        <v/>
+      </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Korobo.png</t>
-        </is>
-      </c>
+      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4181,7 +3767,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4189,11 +3775,7 @@
           <t>Chronos Empire, Glutton, 밀리터리, 무법자, Sword, Fire</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/미나르카.png</t>
-        </is>
-      </c>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4206,15 +3788,15 @@
           <t>Tetra</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v/>
+      </c>
+      <c r="D110" t="n">
+        <v/>
+      </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Tetra.png</t>
-        </is>
-      </c>
+      <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4227,15 +3809,15 @@
           <t>Mordy</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="C111" t="n">
+        <v/>
+      </c>
+      <c r="D111" t="n">
+        <v/>
+      </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Mordy.png</t>
-        </is>
-      </c>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4248,15 +3830,15 @@
           <t>Minimander</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
+      <c r="C112" t="n">
+        <v/>
+      </c>
+      <c r="D112" t="n">
+        <v/>
+      </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Minimander.png</t>
-        </is>
-      </c>
+      <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4269,15 +3851,15 @@
           <t>Lord Ukulele</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
+      <c r="C113" t="n">
+        <v/>
+      </c>
+      <c r="D113" t="n">
+        <v/>
+      </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Lord Ukulele.png</t>
-        </is>
-      </c>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4302,7 +3884,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검, 지팡이</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4310,11 +3892,7 @@
           <t>Clergy, Demon Sword, Glutton, 타이탄, Staff, Water</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/플람라피스 AS.png</t>
-        </is>
-      </c>
+      <c r="G114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4339,7 +3917,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4347,11 +3925,7 @@
           <t>총, Spicy Lover, Staff, Fire, Shade</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/이프.png</t>
-        </is>
-      </c>
+      <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4376,7 +3950,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4384,11 +3958,7 @@
           <t>동방, 독서가, Fairy, Land of Ro, 왕족, Lance, Fire</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/꽃피우는 공주.png</t>
-        </is>
-      </c>
+      <c r="G116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4411,21 +3981,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
           <t>Cat lover, 동방, Animal Talker, Fairy, Land of Mi, Ax, Earth</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/네코코 AS.png</t>
-        </is>
-      </c>
+      <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4450,7 +4012,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4458,11 +4020,7 @@
           <t>가면, 기억 상실, Concerto Artes, 테일즈 오브, Sword, Fire</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/알펜.png</t>
-        </is>
-      </c>
+      <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4487,7 +4045,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4495,11 +4053,7 @@
           <t>Concerto Artes, Dog lover, 테일즈 오브, Staff</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/콜레트.png</t>
-        </is>
-      </c>
+      <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4524,7 +4078,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4532,11 +4086,7 @@
           <t>IDA 스쿨, Sword, Water</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/월화의 영애.png</t>
-        </is>
-      </c>
+      <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4561,7 +4111,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4569,11 +4119,7 @@
           <t>Concerto Artes, 테일즈 오브, Katana, Fire</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/로이드.png</t>
-        </is>
-      </c>
+      <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4598,7 +4144,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4606,11 +4152,7 @@
           <t>Concerto Artes, Cursed, Glutton, 총, 테일즈 오브, Bow, Fire</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/시온 (협주).png</t>
-        </is>
-      </c>
+      <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4635,7 +4177,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4643,11 +4185,7 @@
           <t>가면, 총, 밀리터리, 무법자, Hammer, Wind</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/비아카 AS.png</t>
-        </is>
-      </c>
+      <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4672,7 +4210,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4680,11 +4218,7 @@
           <t>미술, Bind, 독서가, 미식, 왕족, Sword, Wind</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/신시아 AS.png</t>
-        </is>
-      </c>
+      <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4709,7 +4243,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4717,11 +4251,7 @@
           <t>IDA 스쿨, 독서가, 용, 왕족, Bow, Wind</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/클로드 ES.png</t>
-        </is>
-      </c>
+      <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4746,7 +4276,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4754,11 +4284,7 @@
           <t>Minstrel, Cursed, Staff, Fire, Water</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/아이샤.png</t>
-        </is>
-      </c>
+      <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4783,7 +4309,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4791,11 +4317,7 @@
           <t>미글렌스 왕궁, Napper, Lance, Wind</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/소이라 AS.png</t>
-        </is>
-      </c>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4820,7 +4342,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4828,11 +4350,7 @@
           <t>Fists, Water</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/우쿠아지.png</t>
-        </is>
-      </c>
+      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4857,7 +4375,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4865,11 +4383,7 @@
           <t>동방, Fairy, Bow, Water</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/유키노 AS.png</t>
-        </is>
-      </c>
+      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4894,7 +4408,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4902,11 +4416,7 @@
           <t>Cat lover, Animal Talker, Staff, Water</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/레레 AS.png</t>
-        </is>
-      </c>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4931,7 +4441,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4939,11 +4449,7 @@
           <t>Cat lover, 안경, 연금술사, 총, Bow, Crystal</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/알마.png</t>
-        </is>
-      </c>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4968,7 +4474,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4976,11 +4482,7 @@
           <t>Clergy, 상사병, Nicknamer, Spicy Lover, Hammer, Wind</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/유인 AS.png</t>
-        </is>
-      </c>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5005,7 +4507,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5013,11 +4515,7 @@
           <t>동방, Sweet tooth, Land of Mi, 상사병, Katana, Wind</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/아자미 AS.png</t>
-        </is>
-      </c>
+      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5042,7 +4540,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5050,11 +4548,7 @@
           <t>Cat lover, 동방, 독서가, 총, Itto-Ryu, Land of Mi, Staff, Fire</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/먹빛의 책사.png</t>
-        </is>
-      </c>
+      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5079,7 +4573,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5087,11 +4581,7 @@
           <t>미글렌스 왕궁, 방패, Sword, Fire</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/라디아스 AS.png</t>
-        </is>
-      </c>
+      <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5116,7 +4606,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5124,11 +4614,7 @@
           <t>미글렌스 왕궁, 왕족, Sword, Fire</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/미유 ES.png</t>
-        </is>
-      </c>
+      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5153,7 +4639,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5161,11 +4647,7 @@
           <t>과학자, Hammer, Wind</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/녹시스.png</t>
-        </is>
-      </c>
+      <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5190,7 +4672,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5198,11 +4680,7 @@
           <t>기억 상실, 후드, 왕족, Bow, Water, Shade</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/노나.png</t>
-        </is>
-      </c>
+      <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5225,21 +4703,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
           <t>Estrangement, Ax, Fire, Thunder</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/오를레아.png</t>
-        </is>
-      </c>
+      <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5264,7 +4734,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5272,11 +4742,7 @@
           <t>Minstrel, Fishman, West, Lance, Earth, Shade</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/미르샤 AS.png</t>
-        </is>
-      </c>
+      <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5299,21 +4765,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
           <t>Woodcutter, Ax, Water</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/필로 AS.png</t>
-        </is>
-      </c>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5338,7 +4796,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5346,11 +4804,7 @@
           <t>Cat lover, 동방, Land of Mi, Zoology, Katana, Earth</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/오토하 AS.png</t>
-        </is>
-      </c>
+      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5375,7 +4829,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5383,11 +4837,7 @@
           <t>IDA 스쿨, Staff, Water</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/마유.png</t>
-        </is>
-      </c>
+      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5412,7 +4862,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5420,11 +4870,7 @@
           <t>Sweet tooth, 미식, Lost Laboratory, Lance, Wind</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/수제트 ES.png</t>
-        </is>
-      </c>
+      <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5449,7 +4895,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5457,11 +4903,7 @@
           <t>Lost Laboratory, Machinery, Bow, Water, Thunder</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/은빛을 휘감은 번개술사.png</t>
-        </is>
-      </c>
+      <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5486,7 +4928,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5494,11 +4936,7 @@
           <t>Scars of the Wheel of Time, Staff, Crystal</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/별이.png</t>
-        </is>
-      </c>
+      <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5523,7 +4961,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5531,11 +4969,7 @@
           <t>기억 상실, Lost Laboratory, Lance, Earth</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/보라 의상의 창술사.png</t>
-        </is>
-      </c>
+      <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5560,7 +4994,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검, 지팡이</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5568,11 +5002,7 @@
           <t>Clergy, Demon Sword, Glutton, 타이탄, Staff, Water</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/플람라피스.png</t>
-        </is>
-      </c>
+      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5597,7 +5027,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5605,11 +5035,7 @@
           <t>Minstrel, 독서가, Nicknamer, West, Bow, Wind, Crystal</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/미스트레아 AS.png</t>
-        </is>
-      </c>
+      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5632,21 +5058,13 @@
           <t>그림자</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
           <t>Sweet tooth, 미식, Lost Laboratory, Ax, Wind</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/푸른 빛의 낫잡이.png</t>
-        </is>
-      </c>
+      <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5671,7 +5089,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5679,11 +5097,7 @@
           <t>IDA 스쿨, 총, 후드, Lost Laboratory, Fists, Fire, Crystal</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/빨간 외투의 화염술사.png</t>
-        </is>
-      </c>
+      <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5706,21 +5120,13 @@
           <t>그림자</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
           <t>마수, 후드, 프리아레스, Ax, Water</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/제빌로 AS.png</t>
-        </is>
-      </c>
+      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5745,7 +5151,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5753,11 +5159,7 @@
           <t>Lost Laboratory, Power to Rule, Katana, Earth, Shade</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/검은 옷의 칼잡이.png</t>
-        </is>
-      </c>
+      <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5782,7 +5184,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5790,11 +5192,7 @@
           <t>용, Staff, Water, Crystal</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/에바.png</t>
-        </is>
-      </c>
+      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5819,7 +5217,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5827,11 +5225,7 @@
           <t>IDA 스쿨, Sweet tooth, 독서가, Lost Laboratory, Power to Rule, Katana, Wind, Shade</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/큐리오.png</t>
-        </is>
-      </c>
+      <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5856,7 +5250,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5864,11 +5258,7 @@
           <t>IDA 스쿨, 독서가, COA, Lost Laboratory, Power to Rule, Katana, Wind</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/이스카 ES.png</t>
-        </is>
-      </c>
+      <c r="G156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5893,7 +5283,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5901,11 +5291,7 @@
           <t>Dog lover, 프리아레스, Spicy Lover, Hammer, Earth</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/히나기쿠.png</t>
-        </is>
-      </c>
+      <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5930,7 +5316,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5938,11 +5324,7 @@
           <t>용궁, 기억 상실, Bind, Fishman, Staff, Water</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/레비아 AS.png</t>
-        </is>
-      </c>
+      <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5965,21 +5347,13 @@
           <t>그림자</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
           <t>용궁, Glutton, 왕족, Ax, Earth</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/나기 ES.png</t>
-        </is>
-      </c>
+      <c r="G159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6004,7 +5378,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6012,11 +5386,7 @@
           <t>New Time Drift, Scars of the Wheel of Time, Staff, Fire, Shade</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/츠쿠요미.png</t>
-        </is>
-      </c>
+      <c r="G160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6041,7 +5411,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6049,11 +5419,7 @@
           <t>New Radical Dreamers, Scars of the Wheel of Time, Katana, Fire</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/키드.png</t>
-        </is>
-      </c>
+      <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6076,21 +5442,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
         <is>
           <t>Cat lover, 동방, Avenger, Mounted, Ax, Wind</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/키쿄 AS.png</t>
-        </is>
-      </c>
+      <c r="G162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6115,7 +5473,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6123,11 +5481,7 @@
           <t>New Radical Dreamers, New Time Drift, Scars of the Wheel of Time, Sword</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/세르주.png</t>
-        </is>
-      </c>
+      <c r="G163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6152,7 +5506,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6160,11 +5514,7 @@
           <t>Minstrel, 북방, Bow, Fire</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/피치카.png</t>
-        </is>
-      </c>
+      <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6189,7 +5539,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6197,11 +5547,7 @@
           <t>용궁, Fishman, 왕족, Lance, Water</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/시에라 AS.png</t>
-        </is>
-      </c>
+      <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6226,7 +5572,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6234,11 +5580,7 @@
           <t>Sweet tooth, Dog lover, 총, 무법자, Weapons, Zoology, Fists, Fire</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/하디 AS.png</t>
-        </is>
-      </c>
+      <c r="G166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6263,7 +5605,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6271,11 +5613,7 @@
           <t>용궁, Staff, Earth</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/치요 AS.png</t>
-        </is>
-      </c>
+      <c r="G167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6300,7 +5638,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6308,11 +5646,7 @@
           <t>바르오키, Cursed, Katana, Wind, Thunder</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/빅트 AS.png</t>
-        </is>
-      </c>
+      <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -6337,7 +5671,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6345,11 +5679,7 @@
           <t>동방, Bind, Land of Shin, 상사병, Hammer, Earth</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/밍화 AS.png</t>
-        </is>
-      </c>
+      <c r="G169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6374,7 +5704,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6382,11 +5712,7 @@
           <t>동방, Cursed, 타이탄, Lance, Wind</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/가람배럴.png</t>
-        </is>
-      </c>
+      <c r="G170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6409,21 +5735,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
           <t>Cat lover, 동방, Animal Talker, Fairy, Land of Mi, Ax, Earth</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/네코코.png</t>
-        </is>
-      </c>
+      <c r="G171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6448,7 +5766,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6456,11 +5774,7 @@
           <t>동방, 가면, Avenger, Cursed, Fairy, Land of Ro, 왕족, Katana, Fire</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/츠키하 ES.png</t>
-        </is>
-      </c>
+      <c r="G172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6485,7 +5799,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6493,11 +5807,7 @@
           <t>동방, Glutton, Land of Mi, Ninja, Fists, Earth</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/츠바메 AS.png</t>
-        </is>
-      </c>
+      <c r="G173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6522,7 +5832,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6530,11 +5840,7 @@
           <t>IDA 스쿨, Estrangement, Staff, Wind</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/멜로디.png</t>
-        </is>
-      </c>
+      <c r="G174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6559,7 +5865,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6567,11 +5873,7 @@
           <t>기억 상실, 지오, West, Staff, Earth, Crystal</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/클라르테 AS.png</t>
-        </is>
-      </c>
+      <c r="G175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6596,7 +5898,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6604,11 +5906,7 @@
           <t>Clergy, Sweet tooth, West, Sword, Fire, Shade</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/틸릴 AS.png</t>
-        </is>
-      </c>
+      <c r="G176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6633,7 +5931,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6641,11 +5939,7 @@
           <t>Sweet tooth, 용, Lance, Earth</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/티라미수 AS.png</t>
-        </is>
-      </c>
+      <c r="G177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6670,7 +5964,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6678,11 +5972,7 @@
           <t>Cat lover, 죽마고우, 동방, Itto-Ryu, Land of Mi, Mounted, Spicy Lover, Katana, Water</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/시구레 AS.png</t>
-        </is>
-      </c>
+      <c r="G178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6707,7 +5997,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6715,11 +6005,7 @@
           <t>Clergy, Minstrel, Sweet tooth, Miner, 왕족, West, Hammer, Water</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/메리나 ES.png</t>
-        </is>
-      </c>
+      <c r="G179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6744,7 +6030,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6752,11 +6038,7 @@
           <t>마수, Animal Talker, 장례, 프리아레스, Staff, Wind</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/듀나리스 AS.png</t>
-        </is>
-      </c>
+      <c r="G180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6781,7 +6063,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6789,11 +6071,7 @@
           <t>엘프, Lance, Water, Crystal</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/이벨라.png</t>
-        </is>
-      </c>
+      <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6818,7 +6096,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6826,11 +6104,7 @@
           <t>미글렌스 왕궁, 왕족, Sword, Fire</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/미유 AS.png</t>
-        </is>
-      </c>
+      <c r="G182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6855,7 +6129,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6863,11 +6137,7 @@
           <t>엘프, 상사병, Staff, Fire</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/라디카 AS.png</t>
-        </is>
-      </c>
+      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6892,7 +6162,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6900,11 +6170,7 @@
           <t>IDA 스쿨, Lance, Water</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/히스메나 AS.png</t>
-        </is>
-      </c>
+      <c r="G184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6929,7 +6195,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6937,11 +6203,7 @@
           <t>Minstrel, Fishman, West, Lance, Earth, Shade</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/미르샤.png</t>
-        </is>
-      </c>
+      <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6966,7 +6228,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6974,11 +6236,7 @@
           <t>안경, Sweet tooth, Cursed, Miner, Weapons, Hammer, Fire</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/유인 AS.png</t>
-        </is>
-      </c>
+      <c r="G186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7001,21 +6259,13 @@
           <t>그림자</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
           <t>가면, 후드, 프리아레스, Ax, Wind</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/이루루 AS.png</t>
-        </is>
-      </c>
+      <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7040,7 +6290,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7048,11 +6298,7 @@
           <t>요리, 동방, Fairy, Land of Shin, Spicy Lover, Bow, Fire</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/호오즈키 AS.png</t>
-        </is>
-      </c>
+      <c r="G188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7077,7 +6323,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7085,11 +6331,7 @@
           <t>Cat lover, Clergy, Sharp Ears, West, Staff, Fire</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/로제타 AS.png</t>
-        </is>
-      </c>
+      <c r="G189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -7114,7 +6356,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7122,11 +6364,7 @@
           <t>합성인간, KMS, Katana, Wind, Crystal</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/멜리사.png</t>
-        </is>
-      </c>
+      <c r="G190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7151,7 +6389,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7159,11 +6397,7 @@
           <t>동방, Land of Ro, Machinery, Katana, Wind</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/히이나.png</t>
-        </is>
-      </c>
+      <c r="G191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -7188,7 +6422,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7196,11 +6430,7 @@
           <t>동방, Fairy, Bow, Water</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/유키노.png</t>
-        </is>
-      </c>
+      <c r="G192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -7225,7 +6455,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7233,11 +6463,7 @@
           <t>동방, 가면, Avenger, Cursed, Fairy, Land of Ro, 왕족, Katana, Fire</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/츠키하 AS.png</t>
-        </is>
-      </c>
+      <c r="G193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -7262,7 +6488,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7270,11 +6496,7 @@
           <t>미글렌스 왕궁, 방패, Lance, Earth</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/베르트랑 AS.png</t>
-        </is>
-      </c>
+      <c r="G194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -7299,7 +6521,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -7307,11 +6529,7 @@
           <t>Concerto Artes, 테일즈 오브, Sword, Fire</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/클레스.png</t>
-        </is>
-      </c>
+      <c r="G195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -7336,7 +6554,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7344,11 +6562,7 @@
           <t>Concerto Artes, 테일즈 오브, Sword, Water</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/미라.png</t>
-        </is>
-      </c>
+      <c r="G196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -7373,7 +6587,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7381,11 +6595,7 @@
           <t>Concerto Artes, 테일즈 오브, Sword, Earth</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/벨벳.png</t>
-        </is>
-      </c>
+      <c r="G197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -7410,7 +6620,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7418,11 +6628,7 @@
           <t>Concerto Artes, 테일즈 오브, Katana, Wind</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/유리.png</t>
-        </is>
-      </c>
+      <c r="G198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7447,7 +6653,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7455,11 +6661,7 @@
           <t>기억 상실, 지오, West, Staff, Earth, Crystal</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/클라르테.png</t>
-        </is>
-      </c>
+      <c r="G199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7484,7 +6686,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7492,11 +6694,7 @@
           <t>Minstrel, 독서가, Nicknamer, West, Bow, Wind, Crystal</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/미스트레아.png</t>
-        </is>
-      </c>
+      <c r="G200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7521,7 +6719,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7529,11 +6727,7 @@
           <t>가면, 마음의 괴도단, 총, Hammer, Thunder</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/스컬.png</t>
-        </is>
-      </c>
+      <c r="G201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -7558,7 +6752,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -7566,11 +6760,7 @@
           <t>바르오키, Cursed, Katana, Wind, Thunder</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/빅트.png</t>
-        </is>
-      </c>
+      <c r="G202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -7595,7 +6785,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -7603,11 +6793,7 @@
           <t>가면, 마음의 괴도단, Glutton, 총, Sword, Earth</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/바이올렛.png</t>
-        </is>
-      </c>
+      <c r="G203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -7632,7 +6818,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -7640,11 +6826,7 @@
           <t>IDA 스쿨, Cat Hater, Lance, Water</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/포란 AS.png</t>
-        </is>
-      </c>
+      <c r="G204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -7669,7 +6851,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -7677,11 +6859,7 @@
           <t>Clergy, Sweet tooth, West, Sword, Fire, Shade</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/틸릴.png</t>
-        </is>
-      </c>
+      <c r="G205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -7706,7 +6884,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -7714,11 +6892,7 @@
           <t>Minstrel, Bow, Earth</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/시엘 AS.png</t>
-        </is>
-      </c>
+      <c r="G206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -7743,7 +6917,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -7751,11 +6925,7 @@
           <t>Clergy, 상사병, Nicknamer, Spicy Lover, Hammer, Wind</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/유인.png</t>
-        </is>
-      </c>
+      <c r="G207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7780,7 +6950,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7788,11 +6958,7 @@
           <t>Cat lover, 미술, KMS, Sword, Wind</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/섀넌 AS.png</t>
-        </is>
-      </c>
+      <c r="G208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -7817,7 +6983,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -7825,11 +6991,7 @@
           <t>Sweet tooth, Dog lover, 총, 무법자, Weapons, Zoology, Fists, Fire</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/하디.png</t>
-        </is>
-      </c>
+      <c r="G209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -7852,21 +7014,13 @@
           <t>그림자</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
           <t>미술, Bind, 미식, Weapons, Zoology, Ax, Water</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/소피아.png</t>
-        </is>
-      </c>
+      <c r="G210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -7891,7 +7045,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -7899,11 +7053,7 @@
           <t>미술, Bind, 독서가, 미식, 왕족, Sword, Wind</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/신시아.png</t>
-        </is>
-      </c>
+      <c r="G211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7928,7 +7078,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -7936,11 +7086,7 @@
           <t>엘프, 독서가, Forager, Zoology, Staff, Wind</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/베이나 AS.png</t>
-        </is>
-      </c>
+      <c r="G212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7963,21 +7109,13 @@
           <t>그림자</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
           <t>마수, 후드, 프리아레스, Ax, Water</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/제빌로.png</t>
-        </is>
-      </c>
+      <c r="G213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8002,7 +7140,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -8010,11 +7148,7 @@
           <t>미글렌스 왕궁, Sweet tooth, Mounted, 방패, Sword, Water</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/아나벨 AS.png</t>
-        </is>
-      </c>
+      <c r="G214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -8039,7 +7173,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -8047,11 +7181,7 @@
           <t>미글렌스 왕궁, 방패, Sword, Fire</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Radi AS.png</t>
-        </is>
-      </c>
+      <c r="G215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -8076,7 +7206,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -8084,11 +7214,7 @@
           <t>마수, Staff, Earth</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/뮬루스 AS.png</t>
-        </is>
-      </c>
+      <c r="G216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -8111,21 +7237,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
           <t>안경, Sweet tooth, COA, Ax, Fire</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/렌리 AS.png</t>
-        </is>
-      </c>
+      <c r="G217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -8150,7 +7268,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -8158,11 +7276,7 @@
           <t>Sweet tooth, 용, Lance, Earth</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/티라미수.png</t>
-        </is>
-      </c>
+      <c r="G218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -8187,7 +7301,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -8195,11 +7309,7 @@
           <t>Cat lover, 기억 상실, 후드, Katana, Earth</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/엘가 AS.png</t>
-        </is>
-      </c>
+      <c r="G219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -8224,7 +7334,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -8232,11 +7342,7 @@
           <t>미글렌스 왕궁, 후드, Ninja, 무법자, Fists, Wind</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/펠미나 AS.png</t>
-        </is>
-      </c>
+      <c r="G220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -8261,7 +7367,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -8269,11 +7375,7 @@
           <t>동방, Bind, Land of Shin, 상사병, Hammer, Earth</t>
         </is>
       </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/밍화.png</t>
-        </is>
-      </c>
+      <c r="G221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -8298,7 +7400,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -8306,11 +7408,7 @@
           <t>안경, COA, Mounted, Lance, Fire</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/세티 AS.png</t>
-        </is>
-      </c>
+      <c r="G222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -8335,7 +7433,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검, 활</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -8343,11 +7441,7 @@
           <t>마수, Demon Sword, 왕족, Spirit Talker, Bow</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/알테나.png</t>
-        </is>
-      </c>
+      <c r="G223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -8370,21 +7464,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
           <t>Cat lover, 동방, Avenger, Mounted, Ax, Wind</t>
         </is>
       </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/키쿄.png</t>
-        </is>
-      </c>
+      <c r="G224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -8409,7 +7495,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -8417,11 +7503,7 @@
           <t>동방, 무법자, Katana, Water</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/니케 AS.png</t>
-        </is>
-      </c>
+      <c r="G225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -8434,19 +7516,23 @@
           <t>Strawboy (Magic)</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
+      <c r="C226" t="n">
+        <v/>
+      </c>
+      <c r="D226" t="n">
+        <v/>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>주먹</t>
+        </is>
+      </c>
       <c r="F226" t="inlineStr">
         <is>
           <t>동방, Straw Dummy, Fists</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Strawboy (Magic).png</t>
-        </is>
-      </c>
+      <c r="G226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -8459,19 +7545,23 @@
           <t>Strawboy (Slash)</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
+      <c r="C227" t="n">
+        <v/>
+      </c>
+      <c r="D227" t="n">
+        <v/>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>주먹</t>
+        </is>
+      </c>
       <c r="F227" t="inlineStr">
         <is>
           <t>동방, Straw Dummy, Fists</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Strawboy (Slash).png</t>
-        </is>
-      </c>
+      <c r="G227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -8484,19 +7574,23 @@
           <t>Strawboy (Blunt)</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
+      <c r="C228" t="n">
+        <v/>
+      </c>
+      <c r="D228" t="n">
+        <v/>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>주먹</t>
+        </is>
+      </c>
       <c r="F228" t="inlineStr">
         <is>
           <t>동방, Straw Dummy, Fists</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Strawboy (Blunt).png</t>
-        </is>
-      </c>
+      <c r="G228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -8509,19 +7603,23 @@
           <t>Strawboy (Pierce)</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
+      <c r="C229" t="n">
+        <v/>
+      </c>
+      <c r="D229" t="n">
+        <v/>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>주먹</t>
+        </is>
+      </c>
       <c r="F229" t="inlineStr">
         <is>
           <t>동방, Straw Dummy, Fists</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Strawboy (Pierce).png</t>
-        </is>
-      </c>
+      <c r="G229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -8534,19 +7632,23 @@
           <t>Strawboy (Healer)</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr"/>
+      <c r="C230" t="n">
+        <v/>
+      </c>
+      <c r="D230" t="n">
+        <v/>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>주먹</t>
+        </is>
+      </c>
       <c r="F230" t="inlineStr">
         <is>
           <t>동방, Straw Dummy, Fists</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/Strawboy (Healer).png</t>
-        </is>
-      </c>
+      <c r="G230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -8571,7 +7673,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -8579,11 +7681,7 @@
           <t>IDA 스쿨, 독서가, 용, 왕족, Bow, Wind</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/클로드 AS.png</t>
-        </is>
-      </c>
+      <c r="G231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -8608,7 +7706,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -8616,11 +7714,7 @@
           <t>요리, Lost Laboratory, Machinery, Bow, Earth</t>
         </is>
       </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/프레메아.png</t>
-        </is>
-      </c>
+      <c r="G232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -8645,7 +7739,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -8653,11 +7747,7 @@
           <t>용, Staff, Fire</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/가리유 AS.png</t>
-        </is>
-      </c>
+      <c r="G233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -8682,7 +7772,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -8690,11 +7780,7 @@
           <t>Clergy, 동방, Estrangement, Staff</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/유나 AS.png</t>
-        </is>
-      </c>
+      <c r="G234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -8719,7 +7805,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -8727,11 +7813,7 @@
           <t>Cursed, 상사병, Sword, Water</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/셰이네 AS.png</t>
-        </is>
-      </c>
+      <c r="G235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -8756,7 +7838,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -8764,11 +7846,7 @@
           <t>엘프, 안경, IDA 스쿨, 독서가, Sword, Wind</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/루이나 AS.png</t>
-        </is>
-      </c>
+      <c r="G236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -8793,7 +7871,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -8801,11 +7879,7 @@
           <t>IDA 스쿨, Lance, Water</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/히스메나.png</t>
-        </is>
-      </c>
+      <c r="G237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -8830,7 +7904,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -8838,11 +7912,7 @@
           <t>IDA 스쿨, Bow</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/마나.png</t>
-        </is>
-      </c>
+      <c r="G238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -8867,7 +7937,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -8875,11 +7945,7 @@
           <t>Cat lover, Clergy, Staff</t>
         </is>
       </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/마리엘 AS.png</t>
-        </is>
-      </c>
+      <c r="G239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -8904,7 +7970,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -8912,11 +7978,7 @@
           <t>마수, Animal Talker, 장례, 프리아레스, Staff, Wind</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/듀나리스.png</t>
-        </is>
-      </c>
+      <c r="G240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -8941,7 +8003,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -8949,11 +8011,7 @@
           <t>마수, Avenger, Fists, Earth</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/로키드 AS.png</t>
-        </is>
-      </c>
+      <c r="G241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -8978,7 +8036,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -8986,11 +8044,7 @@
           <t>요리, 드워프, Nicknamer, Fists, Fire</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/러블리.png</t>
-        </is>
-      </c>
+      <c r="G242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -9013,21 +8067,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr">
         <is>
           <t>Woodcutter, Ax, Water</t>
         </is>
       </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/필로.png</t>
-        </is>
-      </c>
+      <c r="G243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -9050,21 +8096,13 @@
           <t>그림자</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr">
         <is>
           <t>용궁, Glutton, 왕족, Ax, Earth</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/나기 AS.png</t>
-        </is>
-      </c>
+      <c r="G244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -9089,7 +8127,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -9097,11 +8135,7 @@
           <t>동방, Itto-Ryu, Land of Mi, Katana, Fire</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/아카네 AS.png</t>
-        </is>
-      </c>
+      <c r="G245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -9126,7 +8160,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -9134,11 +8168,7 @@
           <t>안경, 가면, 마음의 괴도단, 총, Sword, Fire</t>
         </is>
       </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/조커.png</t>
-        </is>
-      </c>
+      <c r="G246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -9163,7 +8193,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -9171,11 +8201,7 @@
           <t>마음의 괴도단, 기억 상실, 상사병, Sword, Wind</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/모르가나.png</t>
-        </is>
-      </c>
+      <c r="G247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -9200,7 +8226,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -9208,11 +8234,7 @@
           <t>Cat lover, Clergy, Sharp Ears, West, Staff, Fire</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/로제타.png</t>
-        </is>
-      </c>
+      <c r="G248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -9237,7 +8259,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -9245,11 +8267,7 @@
           <t>Cat lover, 죽마고우, 동방, Itto-Ryu, Land of Mi, Mounted, Spicy Lover, Katana, Water</t>
         </is>
       </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/시구레.png</t>
-        </is>
-      </c>
+      <c r="G249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -9274,7 +8292,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -9282,11 +8300,7 @@
           <t>동방, Glutton, Land of Mi, Ninja, Fists, Earth</t>
         </is>
       </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/츠바메.png</t>
-        </is>
-      </c>
+      <c r="G250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -9311,7 +8325,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -9319,11 +8333,7 @@
           <t>Clergy, Minstrel, Sweet tooth, Miner, 왕족, West, Hammer, Water</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/메리나 AS.png</t>
-        </is>
-      </c>
+      <c r="G251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -9348,7 +8358,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -9356,11 +8366,7 @@
           <t>가면, 총, 밀리터리, 무법자, Hammer, Wind</t>
         </is>
       </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/비아카.png</t>
-        </is>
-      </c>
+      <c r="G252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -9385,7 +8391,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -9393,11 +8399,7 @@
           <t>합성인간, 총, Mounted, 무법자, Lance, Earth</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/갤리어드.png</t>
-        </is>
-      </c>
+      <c r="G253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -9422,7 +8424,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -9430,11 +8432,7 @@
           <t>요리, 동방, Fairy, Land of Shin, Spicy Lover, Bow, Fire</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/호오즈키.png</t>
-        </is>
-      </c>
+      <c r="G254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -9459,7 +8457,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -9467,11 +8465,7 @@
           <t>Avenger, Dog lover, Dragon Killer, Bow, Water</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/라클레어 AS.png</t>
-        </is>
-      </c>
+      <c r="G255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -9494,21 +8488,13 @@
           <t>그림자</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr">
         <is>
           <t>가면, 후드, 프리아레스, Ax, Wind</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/이루루.png</t>
-        </is>
-      </c>
+      <c r="G256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -9533,7 +8519,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -9541,11 +8527,7 @@
           <t>엘프, 상사병, Staff, Fire</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/라디카.png</t>
-        </is>
-      </c>
+      <c r="G257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -9570,7 +8552,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -9578,11 +8560,7 @@
           <t>대장간, Estrangement, 후드, Miner, Hammer, Wind</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/노포우족.png</t>
-        </is>
-      </c>
+      <c r="G258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -9607,7 +8585,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -9615,11 +8593,7 @@
           <t>안경, 독서가, 총, Lost Laboratory, 상사병, Fists, Water</t>
         </is>
       </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/듀이.png</t>
-        </is>
-      </c>
+      <c r="G259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -9644,7 +8618,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -9652,11 +8626,7 @@
           <t>Cat lover, 죽마고우, 동방, Itto-Ryu, Land of Mi, Mounted, Katana, Fire</t>
         </is>
       </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/시온 AS.png</t>
-        </is>
-      </c>
+      <c r="G260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -9681,7 +8651,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -9689,11 +8659,7 @@
           <t>엘프, 독서가, Forager, Zoology, Staff, Wind</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/베이나.png</t>
-        </is>
-      </c>
+      <c r="G261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -9718,7 +8684,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -9726,11 +8692,7 @@
           <t>Cat lover, 기억 상실, 후드, Katana, Earth</t>
         </is>
       </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/엘가.png</t>
-        </is>
-      </c>
+      <c r="G262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -9755,7 +8717,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -9763,11 +8725,7 @@
           <t>장례, Nicknamer, Spirit-fused, Staff, Earth</t>
         </is>
       </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/투바 AS.png</t>
-        </is>
-      </c>
+      <c r="G263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -9790,21 +8748,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr">
         <is>
           <t>안경, Sweet tooth, COA, Ax, Fire</t>
         </is>
       </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/렌리.png</t>
-        </is>
-      </c>
+      <c r="G264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -9829,7 +8779,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -9837,11 +8787,7 @@
           <t>Cat lover, 미술, KMS, Sword, Wind</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/섀넌.png</t>
-        </is>
-      </c>
+      <c r="G265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -9866,7 +8812,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -9874,11 +8820,7 @@
           <t>IDA 스쿨, 독서가, COA, Lost Laboratory, Power to Rule, Katana, Wind</t>
         </is>
       </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/이스카 AS.png</t>
-        </is>
-      </c>
+      <c r="G266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -9903,7 +8845,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -9911,11 +8853,7 @@
           <t>IDA 스쿨, Staff, Water</t>
         </is>
       </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/사키 AS.png</t>
-        </is>
-      </c>
+      <c r="G267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -9940,7 +8878,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -9948,11 +8886,7 @@
           <t>IDA 스쿨, 독서가, 용, 왕족, Bow, Wind</t>
         </is>
       </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/클로드.png</t>
-        </is>
-      </c>
+      <c r="G268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -9977,7 +8911,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -9985,11 +8919,7 @@
           <t>IDA 스쿨, Napper, Staff, Water</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/마이티 AS.png</t>
-        </is>
-      </c>
+      <c r="G269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -10014,7 +8944,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -10022,11 +8952,7 @@
           <t>IDA 스쿨, Staff, Water</t>
         </is>
       </c>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/사키.png</t>
-        </is>
-      </c>
+      <c r="G270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -10051,7 +8977,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -10059,11 +8985,7 @@
           <t>동방, 가면, Avenger, Cursed, Fairy, Land of Ro, 왕족, Katana, Fire</t>
         </is>
       </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/츠키하.png</t>
-        </is>
-      </c>
+      <c r="G271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -10088,7 +9010,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -10096,11 +9018,7 @@
           <t>미글렌스 왕궁, 방패, Lance, Earth</t>
         </is>
       </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/베르트랑.png</t>
-        </is>
-      </c>
+      <c r="G272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -10125,7 +9043,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -10133,11 +9051,7 @@
           <t>미글렌스 왕궁, 후드, Ninja, 무법자, Fists, Wind</t>
         </is>
       </c>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/펠미나.png</t>
-        </is>
-      </c>
+      <c r="G273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -10162,7 +9076,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -10170,11 +9084,7 @@
           <t>마수, Luring Shadow, 왕족, Sword, Fire</t>
         </is>
       </c>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/길드너.png</t>
-        </is>
-      </c>
+      <c r="G274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -10199,7 +9109,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -10207,11 +9117,7 @@
           <t>Sweet tooth, 미식, Lost Laboratory, Lance, Wind</t>
         </is>
       </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/수제트 AS.png</t>
-        </is>
-      </c>
+      <c r="G275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -10236,7 +9142,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -10244,11 +9150,7 @@
           <t>마수, Staff, Earth</t>
         </is>
       </c>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/뮬루스.png</t>
-        </is>
-      </c>
+      <c r="G276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -10273,7 +9175,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -10281,11 +9183,7 @@
           <t>Sweet tooth, Cat Hater, Fists, Wind</t>
         </is>
       </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/착한 마쿠마쿠.png</t>
-        </is>
-      </c>
+      <c r="G277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -10310,7 +9208,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -10318,11 +9216,7 @@
           <t>Clergy, Minstrel, Sweet tooth, Miner, 왕족, West, Hammer, Water</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/메리나.png</t>
-        </is>
-      </c>
+      <c r="G278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -10347,7 +9241,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -10355,11 +9249,7 @@
           <t>IDA 스쿨, 과학자, Forager, KMS, Staff</t>
         </is>
       </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/노놀드.png</t>
-        </is>
-      </c>
+      <c r="G279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -10382,21 +9272,13 @@
           <t>그림자</t>
         </is>
       </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr">
         <is>
           <t>미술, Forager, 무법자, Ax, Earth</t>
         </is>
       </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/질버.png</t>
-        </is>
-      </c>
+      <c r="G280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -10421,7 +9303,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -10429,11 +9311,7 @@
           <t>Cursed, 상사병, Sword, Water</t>
         </is>
       </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/셰이네.png</t>
-        </is>
-      </c>
+      <c r="G281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -10458,7 +9336,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -10466,11 +9344,7 @@
           <t>안경, IDA 스쿨, 무법자, Fists, Earth</t>
         </is>
       </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/셀리느.png</t>
-        </is>
-      </c>
+      <c r="G282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -10495,7 +9369,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -10503,11 +9377,7 @@
           <t>안경, COA, Mounted, Lance, Fire</t>
         </is>
       </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/세티.png</t>
-        </is>
-      </c>
+      <c r="G283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -10530,21 +9400,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr">
         <is>
           <t>안경, 무법자, Scallywag, Ax, Wind</t>
         </is>
       </c>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/야즈키.png</t>
-        </is>
-      </c>
+      <c r="G284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -10569,7 +9431,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -10577,11 +9439,7 @@
           <t>안경, Sweet tooth, Cursed, Miner, Weapons, Hammer, Fire</t>
         </is>
       </c>
-      <c r="G285" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/유인.png</t>
-        </is>
-      </c>
+      <c r="G285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -10606,7 +9464,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -10614,11 +9472,7 @@
           <t>Spirit-fused, Staff</t>
         </is>
       </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/에리나.png</t>
-        </is>
-      </c>
+      <c r="G286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -10643,7 +9497,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -10651,11 +9505,7 @@
           <t>용궁, 기억 상실, Bind, Fishman, Staff, Water</t>
         </is>
       </c>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/레비아.png</t>
-        </is>
-      </c>
+      <c r="G287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -10678,21 +9528,13 @@
           <t>그림자</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr">
         <is>
           <t>용궁, Glutton, 왕족, Ax, Earth</t>
         </is>
       </c>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/나기.png</t>
-        </is>
-      </c>
+      <c r="G288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -10717,7 +9559,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -10725,11 +9567,7 @@
           <t>용궁, Staff, Earth</t>
         </is>
       </c>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/치요.png</t>
-        </is>
-      </c>
+      <c r="G289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -10754,7 +9592,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -10762,11 +9600,7 @@
           <t>용궁, Fishman, 왕족, Lance, Water</t>
         </is>
       </c>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/시에라.png</t>
-        </is>
-      </c>
+      <c r="G290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -10791,7 +9625,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -10799,11 +9633,7 @@
           <t>용, Staff, Fire</t>
         </is>
       </c>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/가리유.png</t>
-        </is>
-      </c>
+      <c r="G291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -10828,7 +9658,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -10836,11 +9666,7 @@
           <t>Clergy, 동방, Estrangement, Staff</t>
         </is>
       </c>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/유나.png</t>
-        </is>
-      </c>
+      <c r="G292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -10865,7 +9691,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -10873,11 +9699,7 @@
           <t>Minstrel, Spirit Talker, Bow, Wind</t>
         </is>
       </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/라비나.png</t>
-        </is>
-      </c>
+      <c r="G293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -10902,7 +9724,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -10910,11 +9732,7 @@
           <t>IDA 스쿨, 독서가, COA, Lost Laboratory, Power to Rule, Katana, Wind</t>
         </is>
       </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/이스카.png</t>
-        </is>
-      </c>
+      <c r="G294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -10939,7 +9757,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -10947,11 +9765,7 @@
           <t>IDA 스쿨, Lance, Fire</t>
         </is>
       </c>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/제이드.png</t>
-        </is>
-      </c>
+      <c r="G295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -10976,7 +9790,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -10984,11 +9798,7 @@
           <t>엘프, 안경, IDA 스쿨, 독서가, Sword, Wind</t>
         </is>
       </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/루이나.png</t>
-        </is>
-      </c>
+      <c r="G296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -11013,7 +9823,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -11021,11 +9831,7 @@
           <t>동방, Sweet tooth, Land of Mi, 상사병, Katana, Wind</t>
         </is>
       </c>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/아자미.png</t>
-        </is>
-      </c>
+      <c r="G297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -11050,7 +9856,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -11058,11 +9864,7 @@
           <t>Avenger, Dog lover, Dragon Killer, Bow, Water</t>
         </is>
       </c>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/라클레어.png</t>
-        </is>
-      </c>
+      <c r="G298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -11087,7 +9889,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -11095,11 +9897,7 @@
           <t>요리, 드워프, 미식, Miner, Hammer, Fire</t>
         </is>
       </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/사모라.png</t>
-        </is>
-      </c>
+      <c r="G299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -11124,7 +9922,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -11132,11 +9930,7 @@
           <t>미글렌스 왕궁, Sweet tooth, Mounted, 방패, Sword, Water</t>
         </is>
       </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/아나벨.png</t>
-        </is>
-      </c>
+      <c r="G300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -11161,7 +9955,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -11169,11 +9963,7 @@
           <t>미글렌스 왕궁, 기억 상실, Demon Sword, 무법자, Sword, Earth</t>
         </is>
       </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/디아드라.png</t>
-        </is>
-      </c>
+      <c r="G301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -11198,7 +9988,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -11206,11 +9996,7 @@
           <t>동방, Land of Shin, MMA, Fists, Water</t>
         </is>
       </c>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/네로.png</t>
-        </is>
-      </c>
+      <c r="G302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -11235,7 +10021,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -11243,11 +10029,7 @@
           <t>동방, Itto-Ryu, Land of Mi, Katana, Fire</t>
         </is>
       </c>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/아카네.png</t>
-        </is>
-      </c>
+      <c r="G303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -11272,7 +10054,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -11280,11 +10062,7 @@
           <t>Guiding Light, New Radical Dreamers, New Time Drift, Protagonist, 아르카디아, 바르오키, Concerto Artes, Demon Sword, 용, Forager, Itto-Ryu, Sword, Fire</t>
         </is>
       </c>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/알도.png</t>
-        </is>
-      </c>
+      <c r="G304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -11309,7 +10087,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -11317,11 +10095,7 @@
           <t>대장간, 요리, Avenger, Spirit-fused, Fists, Wind</t>
         </is>
       </c>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/에이미.png</t>
-        </is>
-      </c>
+      <c r="G305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -11344,21 +10118,13 @@
           <t>그림자</t>
         </is>
       </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
         <is>
           <t>Forager, 무법자, Woodcutter, Ax, Wind</t>
         </is>
       </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/베네디트.png</t>
-        </is>
-      </c>
+      <c r="G306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -11383,7 +10149,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -11391,11 +10157,7 @@
           <t>Cat lover, Animal Talker, Spirit Talker, Staff, Fire</t>
         </is>
       </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/비베트.png</t>
-        </is>
-      </c>
+      <c r="G307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -11420,7 +10182,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -11428,11 +10190,7 @@
           <t>엘프, Fleareth, Lance, Water</t>
         </is>
       </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/브리아.png</t>
-        </is>
-      </c>
+      <c r="G308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -11457,7 +10215,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -11465,11 +10223,7 @@
           <t>Minstrel, Bow, Earth</t>
         </is>
       </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/시엘.png</t>
-        </is>
-      </c>
+      <c r="G309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -11494,7 +10248,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -11502,11 +10256,7 @@
           <t>동방, Guiding Light, Cursed, Katana, Water</t>
         </is>
       </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/사이러스 (스토리).png</t>
-        </is>
-      </c>
+      <c r="G310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -11531,7 +10281,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검, 지팡이</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -11539,11 +10289,7 @@
           <t>Cat lover, 요리, 바르오키, Demon Sword, 지오, Staff</t>
         </is>
       </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/피네.png</t>
-        </is>
-      </c>
+      <c r="G311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -11568,7 +10314,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -11576,11 +10322,7 @@
           <t>가면, 합성인간, Staff, Earth</t>
         </is>
       </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/헬레나.png</t>
-        </is>
-      </c>
+      <c r="G312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -11605,7 +10347,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -11613,11 +10355,7 @@
           <t>마수, Avenger, Fists, Earth</t>
         </is>
       </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/로키드.png</t>
-        </is>
-      </c>
+      <c r="G313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -11642,7 +10380,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -11650,11 +10388,7 @@
           <t>Cat lover, Clergy, Staff</t>
         </is>
       </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/마리엘.png</t>
-        </is>
-      </c>
+      <c r="G314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -11679,7 +10413,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -11687,11 +10421,7 @@
           <t>대장간, 안경, 바르오키, 상사병, Miner, Hammer, Earth</t>
         </is>
       </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/메이.png</t>
-        </is>
-      </c>
+      <c r="G315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -11716,7 +10446,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -11724,11 +10454,7 @@
           <t>IDA 스쿨, Napper, Staff, Water</t>
         </is>
       </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/마이티.png</t>
-        </is>
-      </c>
+      <c r="G316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -11753,7 +10479,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -11761,11 +10487,7 @@
           <t>미글렌스 왕궁, 왕족, Sword, Fire</t>
         </is>
       </c>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/미유.png</t>
-        </is>
-      </c>
+      <c r="G317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -11790,7 +10512,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -11798,11 +10520,7 @@
           <t>Clergy, Miner, West, Hammer, Fire</t>
         </is>
       </c>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/프라이.png</t>
-        </is>
-      </c>
+      <c r="G318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -11827,7 +10545,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -11835,11 +10553,7 @@
           <t>Cat lover, KMS, Machinery, Miner, Hammer, Earth</t>
         </is>
       </c>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/리이카.png</t>
-        </is>
-      </c>
+      <c r="G319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -11864,7 +10578,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -11872,11 +10586,7 @@
           <t>안경, IDA 스쿨, Lost Laboratory, Spirit Talker, Staff, Wind</t>
         </is>
       </c>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/세빈.png</t>
-        </is>
-      </c>
+      <c r="G320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -11901,7 +10611,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -11909,11 +10619,7 @@
           <t>Cat lover, 죽마고우, 동방, Itto-Ryu, Land of Mi, Mounted, Katana, Fire</t>
         </is>
       </c>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/시온.png</t>
-        </is>
-      </c>
+      <c r="G321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -11938,7 +10644,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -11946,11 +10652,7 @@
           <t>Sweet tooth, 미식, Lost Laboratory, Lance, Wind</t>
         </is>
       </c>
-      <c r="G322" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/수제트.png</t>
-        </is>
-      </c>
+      <c r="G322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -11975,7 +10677,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -11983,11 +10685,7 @@
           <t>장례, Nicknamer, Spirit-fused, Staff, Earth</t>
         </is>
       </c>
-      <c r="G323" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/투바.png</t>
-        </is>
-      </c>
+      <c r="G323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -12012,7 +10710,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -12020,11 +10718,7 @@
           <t>엘프, 미글렌스 왕궁, Sword, Earth</t>
         </is>
       </c>
-      <c r="G324" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/브리노.png</t>
-        </is>
-      </c>
+      <c r="G324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -12047,21 +10741,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr">
         <is>
           <t>가면, 무법자, Spicy Lover, Ax, Wind</t>
         </is>
       </c>
-      <c r="G325" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/큐카.png</t>
-        </is>
-      </c>
+      <c r="G325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -12086,7 +10772,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -12094,11 +10780,7 @@
           <t>바르오키, Forager, Bow, Wind</t>
         </is>
       </c>
-      <c r="G326" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/다르니스.png</t>
-        </is>
-      </c>
+      <c r="G326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -12121,21 +10803,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
           <t>Scallywag, Ax, Water</t>
         </is>
       </c>
-      <c r="G327" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/데니.png</t>
-        </is>
-      </c>
+      <c r="G327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -12160,7 +10834,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -12168,11 +10842,7 @@
           <t>IDA 스쿨, Cat Hater, Lance, Water</t>
         </is>
       </c>
-      <c r="G328" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/포란.png</t>
-        </is>
-      </c>
+      <c r="G328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -12197,7 +10867,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -12205,11 +10875,7 @@
           <t>동방, Land of Mi, Lance, Earth</t>
         </is>
       </c>
-      <c r="G329" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/코마치.png</t>
-        </is>
-      </c>
+      <c r="G329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -12234,7 +10900,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -12242,11 +10908,7 @@
           <t>안경, 과학자, Forager, KMS, Staff</t>
         </is>
       </c>
-      <c r="G330" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/쿨레르보.png</t>
-        </is>
-      </c>
+      <c r="G330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -12271,7 +10933,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -12279,11 +10941,7 @@
           <t>Cat lover, Animal Talker, Staff, Water</t>
         </is>
       </c>
-      <c r="G331" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/레레.png</t>
-        </is>
-      </c>
+      <c r="G331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -12308,7 +10966,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -12316,11 +10974,7 @@
           <t>요리, 동방, Land of Shin, MMA, Fists, Fire</t>
         </is>
       </c>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/링리.png</t>
-        </is>
-      </c>
+      <c r="G332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -12343,21 +10997,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr">
         <is>
           <t>Scallywag, Spicy Lover, Ax, Fire</t>
         </is>
       </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/미란다.png</t>
-        </is>
-      </c>
+      <c r="G333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -12382,7 +11028,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -12390,11 +11036,7 @@
           <t>Clergy, Sword, Earth</t>
         </is>
       </c>
-      <c r="G334" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/뮤론.png</t>
-        </is>
-      </c>
+      <c r="G334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -12419,7 +11061,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -12427,11 +11069,7 @@
           <t>동방, 무법자, Katana, Water</t>
         </is>
       </c>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/니케.png</t>
-        </is>
-      </c>
+      <c r="G335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -12456,7 +11094,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -12464,11 +11102,7 @@
           <t>바르오키, Miner, Weapons, Lance, Water</t>
         </is>
       </c>
-      <c r="G336" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/노마르.png</t>
-        </is>
-      </c>
+      <c r="G336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -12493,7 +11127,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -12501,11 +11135,7 @@
           <t>Cat lover, 동방, Land of Mi, Zoology, Katana, Earth</t>
         </is>
       </c>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/오토하.png</t>
-        </is>
-      </c>
+      <c r="G337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -12530,7 +11160,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -12538,11 +11168,7 @@
           <t>Minstrel, Cursed, Bow, Fire</t>
         </is>
       </c>
-      <c r="G338" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/파리사.png</t>
-        </is>
-      </c>
+      <c r="G338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -12567,7 +11193,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -12575,11 +11201,7 @@
           <t>과학자, Forager, 총, Staff</t>
         </is>
       </c>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/폼.png</t>
-        </is>
-      </c>
+      <c r="G339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -12604,7 +11226,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -12612,11 +11234,7 @@
           <t>가면, 기억 상실, 후드, Staff, Earth</t>
         </is>
       </c>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/레이븐.png</t>
-        </is>
-      </c>
+      <c r="G340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -12641,7 +11259,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -12649,11 +11267,7 @@
           <t>Lost Laboratory, Machinery, 밀리터리, 무법자, Bow, Water</t>
         </is>
       </c>
-      <c r="G341" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/로벨라.png</t>
-        </is>
-      </c>
+      <c r="G341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -12678,7 +11292,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -12686,11 +11300,7 @@
           <t>독서가, Fists, Fire</t>
         </is>
       </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/루프스.png</t>
-        </is>
-      </c>
+      <c r="G342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -12715,7 +11325,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -12723,11 +11333,7 @@
           <t>미글렌스 왕궁, Napper, Lance, Wind</t>
         </is>
       </c>
-      <c r="G343" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/소이라.png</t>
-        </is>
-      </c>
+      <c r="G343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -12750,21 +11356,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr">
         <is>
           <t>Dragon Killer, Ax, Earth</t>
         </is>
       </c>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/이오.png</t>
-        </is>
-      </c>
+      <c r="G344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -12789,7 +11387,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -12797,11 +11395,7 @@
           <t>가면, Estrangement, Bow</t>
         </is>
       </c>
-      <c r="G345" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/에이시아.png</t>
-        </is>
-      </c>
+      <c r="G345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -12826,7 +11420,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -12834,11 +11428,7 @@
           <t>Fleareth, Hammer</t>
         </is>
       </c>
-      <c r="G346" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/크토스.png</t>
-        </is>
-      </c>
+      <c r="G346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -12863,7 +11453,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -12871,11 +11461,7 @@
           <t>Machinery, Lance</t>
         </is>
       </c>
-      <c r="G347" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/인.png</t>
-        </is>
-      </c>
+      <c r="G347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -12900,7 +11486,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -12908,11 +11494,7 @@
           <t>Fleareth, Napper, Fists</t>
         </is>
       </c>
-      <c r="G348" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/에무스.png</t>
-        </is>
-      </c>
+      <c r="G348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -12935,21 +11517,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E349" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr">
         <is>
           <t>Fleareth, Ax</t>
         </is>
       </c>
-      <c r="G349" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/에스타.png</t>
-        </is>
-      </c>
+      <c r="G349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -12974,7 +11548,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -12982,11 +11556,7 @@
           <t>가면, Sharp Ears, Staff</t>
         </is>
       </c>
-      <c r="G350" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/킬퀴어.png</t>
-        </is>
-      </c>
+      <c r="G350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -13011,7 +11581,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -13019,11 +11589,7 @@
           <t>Machinery, Katana</t>
         </is>
       </c>
-      <c r="G351" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/쿠트.png</t>
-        </is>
-      </c>
+      <c r="G351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -13048,7 +11614,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -13056,11 +11622,7 @@
           <t>가면, Katana</t>
         </is>
       </c>
-      <c r="G352" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/메네시아.png</t>
-        </is>
-      </c>
+      <c r="G352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -13085,7 +11647,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -13093,11 +11655,7 @@
           <t>Fleareth, Ninja, Sword</t>
         </is>
       </c>
-      <c r="G353" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/나토레.png</t>
-        </is>
-      </c>
+      <c r="G353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -13122,7 +11680,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -13130,11 +11688,7 @@
           <t>가면, Sword</t>
         </is>
       </c>
-      <c r="G354" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/네일리아.png</t>
-        </is>
-      </c>
+      <c r="G354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -13159,7 +11713,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -13167,11 +11721,7 @@
           <t>Fleareth, Bow</t>
         </is>
       </c>
-      <c r="G355" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/닉사.png</t>
-        </is>
-      </c>
+      <c r="G355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -13196,7 +11746,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -13204,11 +11754,7 @@
           <t>Machinery, Staff</t>
         </is>
       </c>
-      <c r="G356" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/누므.png</t>
-        </is>
-      </c>
+      <c r="G356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -13231,21 +11777,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr">
         <is>
           <t>Machinery, Ax</t>
         </is>
       </c>
-      <c r="G357" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/오르.png</t>
-        </is>
-      </c>
+      <c r="G357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -13270,7 +11808,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -13278,11 +11816,7 @@
           <t>Cat lover, 가면, Animal Talker, Hammer</t>
         </is>
       </c>
-      <c r="G358" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/패시아.png</t>
-        </is>
-      </c>
+      <c r="G358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -13305,21 +11839,13 @@
           <t>빛</t>
         </is>
       </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>Obtain</t>
-        </is>
-      </c>
+      <c r="E359" t="inlineStr"/>
       <c r="F359" t="inlineStr">
         <is>
           <t>가면, Sweet tooth, Ax</t>
         </is>
       </c>
-      <c r="G359" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/로디아.png</t>
-        </is>
-      </c>
+      <c r="G359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -13344,7 +11870,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>활</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -13352,11 +11878,7 @@
           <t>Machinery, Bow</t>
         </is>
       </c>
-      <c r="G360" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/세스.png</t>
-        </is>
-      </c>
+      <c r="G360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -13381,7 +11903,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>창</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -13389,11 +11911,7 @@
           <t>가면, Nicknamer, Lance</t>
         </is>
       </c>
-      <c r="G361" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/사우리아.png</t>
-        </is>
-      </c>
+      <c r="G361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -13418,7 +11936,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -13426,11 +11944,7 @@
           <t>Machinery, Fists</t>
         </is>
       </c>
-      <c r="G362" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/테임.png</t>
-        </is>
-      </c>
+      <c r="G362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -13455,7 +11969,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>도</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -13463,11 +11977,7 @@
           <t>Avenger, Fleareth, Katana</t>
         </is>
       </c>
-      <c r="G363" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/톰.png</t>
-        </is>
-      </c>
+      <c r="G363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -13492,7 +12002,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>망치</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -13500,11 +12010,7 @@
           <t>Machinery, Hammer</t>
         </is>
       </c>
-      <c r="G364" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/톨.png</t>
-        </is>
-      </c>
+      <c r="G364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -13529,7 +12035,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>주먹</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -13537,11 +12043,7 @@
           <t>요리, 가면, Fists</t>
         </is>
       </c>
-      <c r="G365" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/우라니아.png</t>
-        </is>
-      </c>
+      <c r="G365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -13566,7 +12068,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>검</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -13574,11 +12076,7 @@
           <t>Machinery, Sword</t>
         </is>
       </c>
-      <c r="G366" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/우오.png</t>
-        </is>
-      </c>
+      <c r="G366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -13603,7 +12101,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Obtain</t>
+          <t>지팡이</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -13611,11 +12109,7 @@
           <t>Fleareth, Staff</t>
         </is>
       </c>
-      <c r="G367" t="inlineStr">
-        <is>
-          <t>04_data/images/character_art/이시스.png</t>
-        </is>
-      </c>
+      <c r="G367" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
